--- a/docs/Z80.xlsx
+++ b/docs/Z80.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dotne\source\repos\kliveide\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{756094DE-C507-4DAF-9BC2-9F3F93C0A57D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C654485E-11AC-42CF-A1DC-6C87C54F7685}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" activeTab="6" xr2:uid="{5CA8A63B-F490-42DA-8730-76D66EBE7502}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{5CA8A63B-F490-42DA-8730-76D66EBE7502}"/>
   </bookViews>
   <sheets>
     <sheet name="Standard" sheetId="2" r:id="rId1"/>
@@ -3663,7 +3663,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3672,13 +3672,26 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -3690,14 +3703,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Jelölőszín 1" xfId="1" builtinId="29"/>
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="119">
@@ -4734,8 +4750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F04B26D1-A31D-4795-A91D-A81DC5C601BD}">
   <dimension ref="A1:Q18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -4852,16 +4868,16 @@
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>36</v>
       </c>
       <c r="F3" s="1" t="s">
@@ -4870,22 +4886,22 @@
       <c r="G3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="2" t="s">
         <v>39</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="2" t="s">
         <v>41</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="L3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="M3" s="2" t="s">
         <v>44</v>
       </c>
       <c r="N3" s="1" t="s">
@@ -4894,7 +4910,7 @@
       <c r="O3" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="P3" s="2" t="s">
         <v>47</v>
       </c>
       <c r="Q3" s="1" t="s">
@@ -4905,16 +4921,16 @@
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="2" t="s">
         <v>52</v>
       </c>
       <c r="F4" s="1" t="s">
@@ -4923,22 +4939,22 @@
       <c r="G4" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="2" t="s">
         <v>55</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J4" s="2" t="s">
         <v>57</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="L4" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="M4" s="2" t="s">
         <v>60</v>
       </c>
       <c r="N4" s="1" t="s">
@@ -4947,7 +4963,7 @@
       <c r="O4" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="P4" s="2" t="s">
         <v>63</v>
       </c>
       <c r="Q4" s="1" t="s">
@@ -4961,13 +4977,13 @@
       <c r="B5" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="2" t="s">
         <v>68</v>
       </c>
       <c r="F5" s="1" t="s">
@@ -4976,7 +4992,7 @@
       <c r="G5" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="2" t="s">
         <v>71</v>
       </c>
       <c r="I5" s="1" t="s">
@@ -4988,10 +5004,10 @@
       <c r="K5" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="L5" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="M5" s="2" t="s">
         <v>76</v>
       </c>
       <c r="N5" s="1" t="s">
@@ -5000,7 +5016,7 @@
       <c r="O5" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="P5" s="1" t="s">
+      <c r="P5" s="2" t="s">
         <v>79</v>
       </c>
       <c r="Q5" s="1" t="s">
@@ -5014,13 +5030,13 @@
       <c r="B6" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="2" t="s">
         <v>84</v>
       </c>
       <c r="F6" s="1" t="s">
@@ -5029,7 +5045,7 @@
       <c r="G6" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="2" t="s">
         <v>87</v>
       </c>
       <c r="I6" s="1" t="s">
@@ -5041,10 +5057,10 @@
       <c r="K6" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="L6" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="M6" s="2" t="s">
         <v>92</v>
       </c>
       <c r="N6" s="1" t="s">
@@ -5053,7 +5069,7 @@
       <c r="O6" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="P6" s="1" t="s">
+      <c r="P6" s="2" t="s">
         <v>95</v>
       </c>
       <c r="Q6" s="1" t="s">
@@ -9330,7 +9346,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC54877C-0099-46F6-90F7-92BA5AA488CC}">
   <dimension ref="A1:Q18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>

--- a/docs/Z80.xlsx
+++ b/docs/Z80.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dotne\source\repos\kliveide\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C654485E-11AC-42CF-A1DC-6C87C54F7685}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E326B678-C319-4036-9ACB-2D3F29D0A5E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{5CA8A63B-F490-42DA-8730-76D66EBE7502}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" activeTab="1" xr2:uid="{5CA8A63B-F490-42DA-8730-76D66EBE7502}"/>
   </bookViews>
   <sheets>
     <sheet name="Standard" sheetId="2" r:id="rId1"/>
@@ -129,7 +129,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1607" uniqueCount="1176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3095" uniqueCount="1176">
   <si>
     <t>Column1</t>
   </si>
@@ -3663,7 +3663,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3680,8 +3680,16 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3693,8 +3701,19 @@
         <fgColor theme="4"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor theme="9" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -3702,17 +3721,80 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Bevitel" xfId="2" builtinId="20"/>
     <cellStyle name="Jelölőszín 1" xfId="1" builtinId="29"/>
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -4748,10 +4830,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F04B26D1-A31D-4795-A91D-A81DC5C601BD}">
-  <dimension ref="A1:Q18"/>
+  <dimension ref="A1:Q39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R30" sqref="R30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -5080,52 +5162,52 @@
       <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I7" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="J7" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="K7" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="L7" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="M7" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="N7" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="O7" s="1" t="s">
+      <c r="O7" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="P7" s="1" t="s">
+      <c r="P7" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="Q7" s="1" t="s">
+      <c r="Q7" s="2" t="s">
         <v>112</v>
       </c>
     </row>
@@ -5133,52 +5215,52 @@
       <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="I8" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="J8" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="K8" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="L8" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="M8" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="N8" s="1" t="s">
+      <c r="N8" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="O8" s="1" t="s">
+      <c r="O8" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="P8" s="1" t="s">
+      <c r="P8" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="Q8" s="1" t="s">
+      <c r="Q8" s="2" t="s">
         <v>128</v>
       </c>
     </row>
@@ -5186,52 +5268,52 @@
       <c r="A9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="I9" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="J9" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="K9" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="L9" s="1" t="s">
+      <c r="L9" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="M9" s="1" t="s">
+      <c r="M9" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="N9" s="1" t="s">
+      <c r="N9" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="O9" s="1" t="s">
+      <c r="O9" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="P9" s="1" t="s">
+      <c r="P9" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="Q9" s="1" t="s">
+      <c r="Q9" s="2" t="s">
         <v>144</v>
       </c>
     </row>
@@ -5239,52 +5321,52 @@
       <c r="A10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H10" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="I10" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="J10" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="K10" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="L10" s="1" t="s">
+      <c r="L10" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="M10" s="1" t="s">
+      <c r="M10" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="N10" s="1" t="s">
+      <c r="N10" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="O10" s="1" t="s">
+      <c r="O10" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="P10" s="1" t="s">
+      <c r="P10" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="Q10" s="1" t="s">
+      <c r="Q10" s="2" t="s">
         <v>160</v>
       </c>
     </row>
@@ -5507,7 +5589,7 @@
       <c r="B15" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="2" t="s">
         <v>226</v>
       </c>
       <c r="D15" s="1" t="s">
@@ -5560,7 +5642,7 @@
       <c r="B16" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="2" t="s">
         <v>242</v>
       </c>
       <c r="D16" s="1" t="s">
@@ -5613,7 +5695,7 @@
       <c r="B17" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="2" t="s">
         <v>258</v>
       </c>
       <c r="D17" s="1" t="s">
@@ -5666,7 +5748,7 @@
       <c r="B18" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="2" t="s">
         <v>274</v>
       </c>
       <c r="D18" s="1" t="s">
@@ -5709,6 +5791,904 @@
         <v>287</v>
       </c>
       <c r="Q18" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="B23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" t="s">
+        <v>21</v>
+      </c>
+      <c r="G23" t="s">
+        <v>22</v>
+      </c>
+      <c r="H23" t="s">
+        <v>23</v>
+      </c>
+      <c r="I23" t="s">
+        <v>24</v>
+      </c>
+      <c r="J23" t="s">
+        <v>25</v>
+      </c>
+      <c r="K23" t="s">
+        <v>26</v>
+      </c>
+      <c r="L23" t="s">
+        <v>27</v>
+      </c>
+      <c r="M23" t="s">
+        <v>28</v>
+      </c>
+      <c r="N23" t="s">
+        <v>29</v>
+      </c>
+      <c r="O23" t="s">
+        <v>30</v>
+      </c>
+      <c r="P23" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="L24" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="M24" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="N24" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="O24" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="P24" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q24" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="L25" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="M25" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="N25" t="s">
+        <v>61</v>
+      </c>
+      <c r="O25" t="s">
+        <v>62</v>
+      </c>
+      <c r="P25" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q25" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I26" t="s">
+        <v>72</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="L26" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="M26" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="N26" t="s">
+        <v>77</v>
+      </c>
+      <c r="O26" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="P26" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q26" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E27" t="s">
+        <v>84</v>
+      </c>
+      <c r="F27" t="s">
+        <v>85</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="K27" t="s">
+        <v>90</v>
+      </c>
+      <c r="L27" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="M27" t="s">
+        <v>92</v>
+      </c>
+      <c r="N27" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="O27" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="P27" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q27" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" t="s">
+        <v>97</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="G28" t="s">
+        <v>102</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="K28" t="s">
+        <v>106</v>
+      </c>
+      <c r="L28" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="M28" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="N28" t="s">
+        <v>109</v>
+      </c>
+      <c r="O28" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="P28" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q28" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D29" t="s">
+        <v>115</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="G29" t="s">
+        <v>118</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="J29" t="s">
+        <v>121</v>
+      </c>
+      <c r="K29" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="L29" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="M29" t="s">
+        <v>124</v>
+      </c>
+      <c r="N29" t="s">
+        <v>125</v>
+      </c>
+      <c r="O29" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="P29" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q29" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" t="s">
+        <v>129</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E30" t="s">
+        <v>132</v>
+      </c>
+      <c r="F30" t="s">
+        <v>133</v>
+      </c>
+      <c r="G30" t="s">
+        <v>134</v>
+      </c>
+      <c r="H30" t="s">
+        <v>135</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="K30" t="s">
+        <v>138</v>
+      </c>
+      <c r="L30" t="s">
+        <v>139</v>
+      </c>
+      <c r="M30" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="N30" t="s">
+        <v>141</v>
+      </c>
+      <c r="O30" t="s">
+        <v>142</v>
+      </c>
+      <c r="P30" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q30" s="4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="F31" t="s">
+        <v>149</v>
+      </c>
+      <c r="G31" t="s">
+        <v>150</v>
+      </c>
+      <c r="H31" t="s">
+        <v>151</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="K31" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="L31" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="M31" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="N31" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="O31" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="P31" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C32" t="s">
+        <v>162</v>
+      </c>
+      <c r="D32" t="s">
+        <v>163</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="F32" t="s">
+        <v>165</v>
+      </c>
+      <c r="G32" t="s">
+        <v>166</v>
+      </c>
+      <c r="H32" t="s">
+        <v>167</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="J32" t="s">
+        <v>169</v>
+      </c>
+      <c r="K32" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="L32" t="s">
+        <v>171</v>
+      </c>
+      <c r="M32" t="s">
+        <v>172</v>
+      </c>
+      <c r="N32" t="s">
+        <v>173</v>
+      </c>
+      <c r="O32" t="s">
+        <v>174</v>
+      </c>
+      <c r="P32" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="E33" t="s">
+        <v>180</v>
+      </c>
+      <c r="F33" t="s">
+        <v>181</v>
+      </c>
+      <c r="G33" t="s">
+        <v>182</v>
+      </c>
+      <c r="H33" t="s">
+        <v>183</v>
+      </c>
+      <c r="I33" t="s">
+        <v>184</v>
+      </c>
+      <c r="J33" t="s">
+        <v>185</v>
+      </c>
+      <c r="K33" t="s">
+        <v>186</v>
+      </c>
+      <c r="L33" t="s">
+        <v>187</v>
+      </c>
+      <c r="M33" t="s">
+        <v>188</v>
+      </c>
+      <c r="N33" t="s">
+        <v>189</v>
+      </c>
+      <c r="O33" t="s">
+        <v>190</v>
+      </c>
+      <c r="P33" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q33" s="4" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
+        <v>27</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C34" t="s">
+        <v>194</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="E34" t="s">
+        <v>196</v>
+      </c>
+      <c r="F34" t="s">
+        <v>197</v>
+      </c>
+      <c r="G34" t="s">
+        <v>198</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="K34" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="L34" t="s">
+        <v>203</v>
+      </c>
+      <c r="M34" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="N34" t="s">
+        <v>205</v>
+      </c>
+      <c r="O34" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="P34" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q34" s="4" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
+        <v>28</v>
+      </c>
+      <c r="B35" t="s">
+        <v>209</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D35" t="s">
+        <v>211</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="F35" t="s">
+        <v>213</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="I35" t="s">
+        <v>216</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="K35" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="L35" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="M35" t="s">
+        <v>220</v>
+      </c>
+      <c r="N35" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="O35" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="P35" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q35" s="4" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
+        <v>29</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="I36" t="s">
+        <v>232</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="K36" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="L36" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="M36" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="N36" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="O36" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="P36" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A37" t="s">
+        <v>30</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="F37" t="s">
+        <v>245</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="K37" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="L37" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="M37" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="N37" t="s">
+        <v>253</v>
+      </c>
+      <c r="O37" t="s">
+        <v>254</v>
+      </c>
+      <c r="P37" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q37" s="4" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A38" t="s">
+        <v>31</v>
+      </c>
+      <c r="B38" t="s">
+        <v>257</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="D38" t="s">
+        <v>259</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="F38" t="s">
+        <v>261</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="J38" t="s">
+        <v>265</v>
+      </c>
+      <c r="K38" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="L38" t="s">
+        <v>267</v>
+      </c>
+      <c r="M38" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="N38" t="s">
+        <v>269</v>
+      </c>
+      <c r="O38" t="s">
+        <v>270</v>
+      </c>
+      <c r="P38" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q38" s="4" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A39" t="s">
+        <v>32</v>
+      </c>
+      <c r="B39" t="s">
+        <v>273</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="F39" t="s">
+        <v>277</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="J39" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="K39" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="L39" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="M39" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="N39" t="s">
+        <v>285</v>
+      </c>
+      <c r="O39" t="s">
+        <v>286</v>
+      </c>
+      <c r="P39" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q39" t="s">
         <v>288</v>
       </c>
     </row>
@@ -5722,9 +6702,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58D35BA8-A7B0-4569-9920-0AF18F11F8A2}">
-  <dimension ref="A1:Q8"/>
+  <dimension ref="A1:Q19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S23" sqref="S23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
@@ -6118,6 +7100,320 @@
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
     </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I13" t="s">
+        <v>24</v>
+      </c>
+      <c r="J13" t="s">
+        <v>25</v>
+      </c>
+      <c r="K13" t="s">
+        <v>26</v>
+      </c>
+      <c r="L13" t="s">
+        <v>27</v>
+      </c>
+      <c r="M13" t="s">
+        <v>28</v>
+      </c>
+      <c r="N13" t="s">
+        <v>29</v>
+      </c>
+      <c r="O13" t="s">
+        <v>30</v>
+      </c>
+      <c r="P13" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>289</v>
+      </c>
+      <c r="C14" t="s">
+        <v>290</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="F14" t="s">
+        <v>293</v>
+      </c>
+      <c r="G14" t="s">
+        <v>294</v>
+      </c>
+      <c r="H14" t="s">
+        <v>295</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="J14" t="s">
+        <v>297</v>
+      </c>
+      <c r="K14" t="s">
+        <v>298</v>
+      </c>
+      <c r="L14" t="s">
+        <v>299</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="N14" t="s">
+        <v>293</v>
+      </c>
+      <c r="O14" t="s">
+        <v>301</v>
+      </c>
+      <c r="P14" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>304</v>
+      </c>
+      <c r="C15" t="s">
+        <v>305</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="F15" t="s">
+        <v>293</v>
+      </c>
+      <c r="G15" t="s">
+        <v>294</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="I15" t="s">
+        <v>309</v>
+      </c>
+      <c r="J15" t="s">
+        <v>310</v>
+      </c>
+      <c r="K15" t="s">
+        <v>311</v>
+      </c>
+      <c r="L15" t="s">
+        <v>312</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="N15" t="s">
+        <v>293</v>
+      </c>
+      <c r="O15" t="s">
+        <v>294</v>
+      </c>
+      <c r="P15" t="s">
+        <v>314</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>316</v>
+      </c>
+      <c r="C16" t="s">
+        <v>317</v>
+      </c>
+      <c r="D16" t="s">
+        <v>318</v>
+      </c>
+      <c r="E16" t="s">
+        <v>67</v>
+      </c>
+      <c r="F16" t="s">
+        <v>293</v>
+      </c>
+      <c r="G16" t="s">
+        <v>294</v>
+      </c>
+      <c r="H16" t="s">
+        <v>295</v>
+      </c>
+      <c r="I16" t="s">
+        <v>319</v>
+      </c>
+      <c r="J16" t="s">
+        <v>320</v>
+      </c>
+      <c r="K16" t="s">
+        <v>321</v>
+      </c>
+      <c r="L16" t="s">
+        <v>322</v>
+      </c>
+      <c r="M16" t="s">
+        <v>75</v>
+      </c>
+      <c r="N16" t="s">
+        <v>293</v>
+      </c>
+      <c r="O16" t="s">
+        <v>294</v>
+      </c>
+      <c r="P16" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" t="s">
+        <v>324</v>
+      </c>
+      <c r="C17" t="s">
+        <v>325</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="F17" t="s">
+        <v>293</v>
+      </c>
+      <c r="G17" t="s">
+        <v>294</v>
+      </c>
+      <c r="H17" t="s">
+        <v>308</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="K17" t="s">
+        <v>329</v>
+      </c>
+      <c r="L17" t="s">
+        <v>330</v>
+      </c>
+      <c r="M17" t="s">
+        <v>331</v>
+      </c>
+      <c r="N17" t="s">
+        <v>293</v>
+      </c>
+      <c r="O17" t="s">
+        <v>294</v>
+      </c>
+      <c r="P17" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" t="s">
+        <v>332</v>
+      </c>
+      <c r="C18" t="s">
+        <v>333</v>
+      </c>
+      <c r="D18" t="s">
+        <v>334</v>
+      </c>
+      <c r="E18" t="s">
+        <v>335</v>
+      </c>
+      <c r="J18" t="s">
+        <v>336</v>
+      </c>
+      <c r="K18" t="s">
+        <v>337</v>
+      </c>
+      <c r="L18" t="s">
+        <v>338</v>
+      </c>
+      <c r="M18" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="C19" t="s">
+        <v>341</v>
+      </c>
+      <c r="D19" t="s">
+        <v>342</v>
+      </c>
+      <c r="E19" t="s">
+        <v>343</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="K19" t="s">
+        <v>345</v>
+      </c>
+      <c r="L19" t="s">
+        <v>346</v>
+      </c>
+      <c r="M19" t="s">
+        <v>347</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -6128,9 +7424,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44F98147-46D6-401B-80BC-62C251AD5115}">
-  <dimension ref="A1:Q18"/>
+  <dimension ref="A1:Q39"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T26" sqref="T26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
@@ -7090,6 +8388,904 @@
         <v>603</v>
       </c>
     </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="B23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" t="s">
+        <v>21</v>
+      </c>
+      <c r="G23" t="s">
+        <v>22</v>
+      </c>
+      <c r="H23" t="s">
+        <v>23</v>
+      </c>
+      <c r="I23" t="s">
+        <v>24</v>
+      </c>
+      <c r="J23" t="s">
+        <v>25</v>
+      </c>
+      <c r="K23" t="s">
+        <v>26</v>
+      </c>
+      <c r="L23" t="s">
+        <v>27</v>
+      </c>
+      <c r="M23" t="s">
+        <v>28</v>
+      </c>
+      <c r="N23" t="s">
+        <v>29</v>
+      </c>
+      <c r="O23" t="s">
+        <v>30</v>
+      </c>
+      <c r="P23" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" t="s">
+        <v>348</v>
+      </c>
+      <c r="C24" t="s">
+        <v>349</v>
+      </c>
+      <c r="D24" t="s">
+        <v>350</v>
+      </c>
+      <c r="E24" t="s">
+        <v>351</v>
+      </c>
+      <c r="F24" t="s">
+        <v>352</v>
+      </c>
+      <c r="G24" t="s">
+        <v>353</v>
+      </c>
+      <c r="H24" t="s">
+        <v>354</v>
+      </c>
+      <c r="I24" t="s">
+        <v>355</v>
+      </c>
+      <c r="J24" t="s">
+        <v>356</v>
+      </c>
+      <c r="K24" t="s">
+        <v>357</v>
+      </c>
+      <c r="L24" t="s">
+        <v>358</v>
+      </c>
+      <c r="M24" t="s">
+        <v>359</v>
+      </c>
+      <c r="N24" t="s">
+        <v>360</v>
+      </c>
+      <c r="O24" t="s">
+        <v>361</v>
+      </c>
+      <c r="P24" t="s">
+        <v>362</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" t="s">
+        <v>364</v>
+      </c>
+      <c r="C25" t="s">
+        <v>365</v>
+      </c>
+      <c r="D25" t="s">
+        <v>366</v>
+      </c>
+      <c r="E25" t="s">
+        <v>367</v>
+      </c>
+      <c r="F25" t="s">
+        <v>368</v>
+      </c>
+      <c r="G25" t="s">
+        <v>369</v>
+      </c>
+      <c r="H25" t="s">
+        <v>370</v>
+      </c>
+      <c r="I25" t="s">
+        <v>371</v>
+      </c>
+      <c r="J25" t="s">
+        <v>372</v>
+      </c>
+      <c r="K25" t="s">
+        <v>373</v>
+      </c>
+      <c r="L25" t="s">
+        <v>374</v>
+      </c>
+      <c r="M25" t="s">
+        <v>375</v>
+      </c>
+      <c r="N25" t="s">
+        <v>376</v>
+      </c>
+      <c r="O25" t="s">
+        <v>377</v>
+      </c>
+      <c r="P25" t="s">
+        <v>378</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" t="s">
+        <v>380</v>
+      </c>
+      <c r="C26" t="s">
+        <v>381</v>
+      </c>
+      <c r="D26" t="s">
+        <v>382</v>
+      </c>
+      <c r="E26" t="s">
+        <v>383</v>
+      </c>
+      <c r="F26" t="s">
+        <v>384</v>
+      </c>
+      <c r="G26" t="s">
+        <v>385</v>
+      </c>
+      <c r="H26" t="s">
+        <v>386</v>
+      </c>
+      <c r="I26" t="s">
+        <v>387</v>
+      </c>
+      <c r="J26" t="s">
+        <v>388</v>
+      </c>
+      <c r="K26" t="s">
+        <v>389</v>
+      </c>
+      <c r="L26" t="s">
+        <v>390</v>
+      </c>
+      <c r="M26" t="s">
+        <v>391</v>
+      </c>
+      <c r="N26" t="s">
+        <v>392</v>
+      </c>
+      <c r="O26" t="s">
+        <v>393</v>
+      </c>
+      <c r="P26" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" t="s">
+        <v>396</v>
+      </c>
+      <c r="C27" t="s">
+        <v>397</v>
+      </c>
+      <c r="D27" t="s">
+        <v>398</v>
+      </c>
+      <c r="E27" t="s">
+        <v>399</v>
+      </c>
+      <c r="F27" t="s">
+        <v>400</v>
+      </c>
+      <c r="G27" t="s">
+        <v>401</v>
+      </c>
+      <c r="H27" t="s">
+        <v>402</v>
+      </c>
+      <c r="I27" t="s">
+        <v>403</v>
+      </c>
+      <c r="J27" t="s">
+        <v>404</v>
+      </c>
+      <c r="K27" t="s">
+        <v>405</v>
+      </c>
+      <c r="L27" t="s">
+        <v>406</v>
+      </c>
+      <c r="M27" t="s">
+        <v>407</v>
+      </c>
+      <c r="N27" t="s">
+        <v>408</v>
+      </c>
+      <c r="O27" t="s">
+        <v>409</v>
+      </c>
+      <c r="P27" t="s">
+        <v>410</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" t="s">
+        <v>412</v>
+      </c>
+      <c r="C28" t="s">
+        <v>413</v>
+      </c>
+      <c r="D28" t="s">
+        <v>414</v>
+      </c>
+      <c r="E28" t="s">
+        <v>415</v>
+      </c>
+      <c r="F28" t="s">
+        <v>416</v>
+      </c>
+      <c r="G28" t="s">
+        <v>417</v>
+      </c>
+      <c r="H28" t="s">
+        <v>418</v>
+      </c>
+      <c r="I28" t="s">
+        <v>419</v>
+      </c>
+      <c r="J28" t="s">
+        <v>420</v>
+      </c>
+      <c r="K28" t="s">
+        <v>421</v>
+      </c>
+      <c r="L28" t="s">
+        <v>422</v>
+      </c>
+      <c r="M28" t="s">
+        <v>423</v>
+      </c>
+      <c r="N28" t="s">
+        <v>424</v>
+      </c>
+      <c r="O28" t="s">
+        <v>425</v>
+      </c>
+      <c r="P28" t="s">
+        <v>426</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" t="s">
+        <v>428</v>
+      </c>
+      <c r="C29" t="s">
+        <v>429</v>
+      </c>
+      <c r="D29" t="s">
+        <v>430</v>
+      </c>
+      <c r="E29" t="s">
+        <v>431</v>
+      </c>
+      <c r="F29" t="s">
+        <v>432</v>
+      </c>
+      <c r="G29" t="s">
+        <v>433</v>
+      </c>
+      <c r="H29" t="s">
+        <v>434</v>
+      </c>
+      <c r="I29" t="s">
+        <v>435</v>
+      </c>
+      <c r="J29" t="s">
+        <v>436</v>
+      </c>
+      <c r="K29" t="s">
+        <v>437</v>
+      </c>
+      <c r="L29" t="s">
+        <v>438</v>
+      </c>
+      <c r="M29" t="s">
+        <v>439</v>
+      </c>
+      <c r="N29" t="s">
+        <v>440</v>
+      </c>
+      <c r="O29" t="s">
+        <v>441</v>
+      </c>
+      <c r="P29" t="s">
+        <v>442</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" t="s">
+        <v>444</v>
+      </c>
+      <c r="C30" t="s">
+        <v>445</v>
+      </c>
+      <c r="D30" t="s">
+        <v>446</v>
+      </c>
+      <c r="E30" t="s">
+        <v>447</v>
+      </c>
+      <c r="F30" t="s">
+        <v>448</v>
+      </c>
+      <c r="G30" t="s">
+        <v>449</v>
+      </c>
+      <c r="H30" t="s">
+        <v>450</v>
+      </c>
+      <c r="I30" t="s">
+        <v>451</v>
+      </c>
+      <c r="J30" t="s">
+        <v>452</v>
+      </c>
+      <c r="K30" t="s">
+        <v>453</v>
+      </c>
+      <c r="L30" t="s">
+        <v>454</v>
+      </c>
+      <c r="M30" t="s">
+        <v>455</v>
+      </c>
+      <c r="N30" t="s">
+        <v>456</v>
+      </c>
+      <c r="O30" t="s">
+        <v>457</v>
+      </c>
+      <c r="P30" t="s">
+        <v>458</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>460</v>
+      </c>
+      <c r="C31" t="s">
+        <v>461</v>
+      </c>
+      <c r="D31" t="s">
+        <v>462</v>
+      </c>
+      <c r="E31" t="s">
+        <v>463</v>
+      </c>
+      <c r="F31" t="s">
+        <v>464</v>
+      </c>
+      <c r="G31" t="s">
+        <v>465</v>
+      </c>
+      <c r="H31" t="s">
+        <v>466</v>
+      </c>
+      <c r="I31" t="s">
+        <v>467</v>
+      </c>
+      <c r="J31" t="s">
+        <v>468</v>
+      </c>
+      <c r="K31" t="s">
+        <v>469</v>
+      </c>
+      <c r="L31" t="s">
+        <v>470</v>
+      </c>
+      <c r="M31" t="s">
+        <v>471</v>
+      </c>
+      <c r="N31" t="s">
+        <v>472</v>
+      </c>
+      <c r="O31" t="s">
+        <v>473</v>
+      </c>
+      <c r="P31" t="s">
+        <v>474</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>476</v>
+      </c>
+      <c r="C32" t="s">
+        <v>477</v>
+      </c>
+      <c r="D32" t="s">
+        <v>478</v>
+      </c>
+      <c r="E32" t="s">
+        <v>479</v>
+      </c>
+      <c r="F32" t="s">
+        <v>480</v>
+      </c>
+      <c r="G32" t="s">
+        <v>481</v>
+      </c>
+      <c r="H32" t="s">
+        <v>482</v>
+      </c>
+      <c r="I32" t="s">
+        <v>483</v>
+      </c>
+      <c r="J32" t="s">
+        <v>484</v>
+      </c>
+      <c r="K32" t="s">
+        <v>485</v>
+      </c>
+      <c r="L32" t="s">
+        <v>486</v>
+      </c>
+      <c r="M32" t="s">
+        <v>487</v>
+      </c>
+      <c r="N32" t="s">
+        <v>488</v>
+      </c>
+      <c r="O32" t="s">
+        <v>489</v>
+      </c>
+      <c r="P32" t="s">
+        <v>490</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33" t="s">
+        <v>492</v>
+      </c>
+      <c r="C33" t="s">
+        <v>493</v>
+      </c>
+      <c r="D33" t="s">
+        <v>494</v>
+      </c>
+      <c r="E33" t="s">
+        <v>495</v>
+      </c>
+      <c r="F33" t="s">
+        <v>496</v>
+      </c>
+      <c r="G33" t="s">
+        <v>497</v>
+      </c>
+      <c r="H33" t="s">
+        <v>498</v>
+      </c>
+      <c r="I33" t="s">
+        <v>499</v>
+      </c>
+      <c r="J33" t="s">
+        <v>500</v>
+      </c>
+      <c r="K33" t="s">
+        <v>501</v>
+      </c>
+      <c r="L33" t="s">
+        <v>502</v>
+      </c>
+      <c r="M33" t="s">
+        <v>503</v>
+      </c>
+      <c r="N33" t="s">
+        <v>504</v>
+      </c>
+      <c r="O33" t="s">
+        <v>505</v>
+      </c>
+      <c r="P33" t="s">
+        <v>506</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
+        <v>27</v>
+      </c>
+      <c r="B34" t="s">
+        <v>508</v>
+      </c>
+      <c r="C34" t="s">
+        <v>509</v>
+      </c>
+      <c r="D34" t="s">
+        <v>510</v>
+      </c>
+      <c r="E34" t="s">
+        <v>511</v>
+      </c>
+      <c r="F34" t="s">
+        <v>512</v>
+      </c>
+      <c r="G34" t="s">
+        <v>513</v>
+      </c>
+      <c r="H34" t="s">
+        <v>514</v>
+      </c>
+      <c r="I34" t="s">
+        <v>515</v>
+      </c>
+      <c r="J34" t="s">
+        <v>516</v>
+      </c>
+      <c r="K34" t="s">
+        <v>517</v>
+      </c>
+      <c r="L34" t="s">
+        <v>518</v>
+      </c>
+      <c r="M34" t="s">
+        <v>519</v>
+      </c>
+      <c r="N34" t="s">
+        <v>520</v>
+      </c>
+      <c r="O34" t="s">
+        <v>521</v>
+      </c>
+      <c r="P34" t="s">
+        <v>522</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
+        <v>28</v>
+      </c>
+      <c r="B35" t="s">
+        <v>524</v>
+      </c>
+      <c r="C35" t="s">
+        <v>525</v>
+      </c>
+      <c r="D35" t="s">
+        <v>526</v>
+      </c>
+      <c r="E35" t="s">
+        <v>527</v>
+      </c>
+      <c r="F35" t="s">
+        <v>528</v>
+      </c>
+      <c r="G35" t="s">
+        <v>529</v>
+      </c>
+      <c r="H35" t="s">
+        <v>530</v>
+      </c>
+      <c r="I35" t="s">
+        <v>531</v>
+      </c>
+      <c r="J35" t="s">
+        <v>532</v>
+      </c>
+      <c r="K35" t="s">
+        <v>533</v>
+      </c>
+      <c r="L35" t="s">
+        <v>534</v>
+      </c>
+      <c r="M35" t="s">
+        <v>535</v>
+      </c>
+      <c r="N35" t="s">
+        <v>536</v>
+      </c>
+      <c r="O35" t="s">
+        <v>537</v>
+      </c>
+      <c r="P35" t="s">
+        <v>538</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
+        <v>29</v>
+      </c>
+      <c r="B36" t="s">
+        <v>540</v>
+      </c>
+      <c r="C36" t="s">
+        <v>541</v>
+      </c>
+      <c r="D36" t="s">
+        <v>542</v>
+      </c>
+      <c r="E36" t="s">
+        <v>543</v>
+      </c>
+      <c r="F36" t="s">
+        <v>544</v>
+      </c>
+      <c r="G36" t="s">
+        <v>545</v>
+      </c>
+      <c r="H36" t="s">
+        <v>546</v>
+      </c>
+      <c r="I36" t="s">
+        <v>547</v>
+      </c>
+      <c r="J36" t="s">
+        <v>548</v>
+      </c>
+      <c r="K36" t="s">
+        <v>549</v>
+      </c>
+      <c r="L36" t="s">
+        <v>550</v>
+      </c>
+      <c r="M36" t="s">
+        <v>551</v>
+      </c>
+      <c r="N36" t="s">
+        <v>552</v>
+      </c>
+      <c r="O36" t="s">
+        <v>553</v>
+      </c>
+      <c r="P36" t="s">
+        <v>554</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A37" t="s">
+        <v>30</v>
+      </c>
+      <c r="B37" t="s">
+        <v>556</v>
+      </c>
+      <c r="C37" t="s">
+        <v>557</v>
+      </c>
+      <c r="D37" t="s">
+        <v>558</v>
+      </c>
+      <c r="E37" t="s">
+        <v>559</v>
+      </c>
+      <c r="F37" t="s">
+        <v>560</v>
+      </c>
+      <c r="G37" t="s">
+        <v>561</v>
+      </c>
+      <c r="H37" t="s">
+        <v>562</v>
+      </c>
+      <c r="I37" t="s">
+        <v>563</v>
+      </c>
+      <c r="J37" t="s">
+        <v>564</v>
+      </c>
+      <c r="K37" t="s">
+        <v>565</v>
+      </c>
+      <c r="L37" t="s">
+        <v>566</v>
+      </c>
+      <c r="M37" t="s">
+        <v>567</v>
+      </c>
+      <c r="N37" t="s">
+        <v>568</v>
+      </c>
+      <c r="O37" t="s">
+        <v>569</v>
+      </c>
+      <c r="P37" t="s">
+        <v>570</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A38" t="s">
+        <v>31</v>
+      </c>
+      <c r="B38" t="s">
+        <v>572</v>
+      </c>
+      <c r="C38" t="s">
+        <v>573</v>
+      </c>
+      <c r="D38" t="s">
+        <v>574</v>
+      </c>
+      <c r="E38" t="s">
+        <v>575</v>
+      </c>
+      <c r="F38" t="s">
+        <v>576</v>
+      </c>
+      <c r="G38" t="s">
+        <v>577</v>
+      </c>
+      <c r="H38" t="s">
+        <v>578</v>
+      </c>
+      <c r="I38" t="s">
+        <v>579</v>
+      </c>
+      <c r="J38" t="s">
+        <v>580</v>
+      </c>
+      <c r="K38" t="s">
+        <v>581</v>
+      </c>
+      <c r="L38" t="s">
+        <v>582</v>
+      </c>
+      <c r="M38" t="s">
+        <v>583</v>
+      </c>
+      <c r="N38" t="s">
+        <v>584</v>
+      </c>
+      <c r="O38" t="s">
+        <v>585</v>
+      </c>
+      <c r="P38" t="s">
+        <v>586</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A39" t="s">
+        <v>32</v>
+      </c>
+      <c r="B39" t="s">
+        <v>588</v>
+      </c>
+      <c r="C39" t="s">
+        <v>589</v>
+      </c>
+      <c r="D39" t="s">
+        <v>590</v>
+      </c>
+      <c r="E39" t="s">
+        <v>591</v>
+      </c>
+      <c r="F39" t="s">
+        <v>592</v>
+      </c>
+      <c r="G39" t="s">
+        <v>593</v>
+      </c>
+      <c r="H39" t="s">
+        <v>594</v>
+      </c>
+      <c r="I39" t="s">
+        <v>595</v>
+      </c>
+      <c r="J39" t="s">
+        <v>596</v>
+      </c>
+      <c r="K39" t="s">
+        <v>597</v>
+      </c>
+      <c r="L39" t="s">
+        <v>598</v>
+      </c>
+      <c r="M39" t="s">
+        <v>599</v>
+      </c>
+      <c r="N39" t="s">
+        <v>600</v>
+      </c>
+      <c r="O39" t="s">
+        <v>601</v>
+      </c>
+      <c r="P39" t="s">
+        <v>602</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>603</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -7100,9 +9296,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6F51452-954B-4282-B7B0-EDD0F8B5E2F1}">
-  <dimension ref="A1:Q18"/>
+  <dimension ref="A1:Q39"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="K38" sqref="K38"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
@@ -7722,6 +9920,394 @@
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
     </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="B23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" t="s">
+        <v>21</v>
+      </c>
+      <c r="G23" t="s">
+        <v>22</v>
+      </c>
+      <c r="H23" t="s">
+        <v>23</v>
+      </c>
+      <c r="I23" t="s">
+        <v>24</v>
+      </c>
+      <c r="J23" t="s">
+        <v>25</v>
+      </c>
+      <c r="K23" t="s">
+        <v>26</v>
+      </c>
+      <c r="L23" t="s">
+        <v>27</v>
+      </c>
+      <c r="M23" t="s">
+        <v>28</v>
+      </c>
+      <c r="N23" t="s">
+        <v>29</v>
+      </c>
+      <c r="O23" t="s">
+        <v>30</v>
+      </c>
+      <c r="P23" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>17</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>18</v>
+      </c>
+      <c r="K25" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>606</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>608</v>
+      </c>
+      <c r="F26" t="s">
+        <v>609</v>
+      </c>
+      <c r="G26" t="s">
+        <v>610</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>611</v>
+      </c>
+      <c r="K26" t="s">
+        <v>612</v>
+      </c>
+      <c r="L26" s="4" t="s">
+        <v>613</v>
+      </c>
+      <c r="M26" t="s">
+        <v>614</v>
+      </c>
+      <c r="N26" t="s">
+        <v>615</v>
+      </c>
+      <c r="O26" t="s">
+        <v>616</v>
+      </c>
+      <c r="P26" s="4" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27" t="s">
+        <v>618</v>
+      </c>
+      <c r="G27" t="s">
+        <v>619</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>620</v>
+      </c>
+      <c r="K27" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>21</v>
+      </c>
+      <c r="F28" t="s">
+        <v>622</v>
+      </c>
+      <c r="G28" t="s">
+        <v>623</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>624</v>
+      </c>
+      <c r="N28" t="s">
+        <v>625</v>
+      </c>
+      <c r="O28" t="s">
+        <v>626</v>
+      </c>
+      <c r="P28" s="4" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
+        <v>22</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="G29" t="s">
+        <v>629</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>630</v>
+      </c>
+      <c r="N29" t="s">
+        <v>631</v>
+      </c>
+      <c r="O29" s="4" t="s">
+        <v>632</v>
+      </c>
+      <c r="P29" s="4" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" t="s">
+        <v>634</v>
+      </c>
+      <c r="C30" t="s">
+        <v>635</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>636</v>
+      </c>
+      <c r="E30" t="s">
+        <v>637</v>
+      </c>
+      <c r="F30" t="s">
+        <v>638</v>
+      </c>
+      <c r="G30" t="s">
+        <v>639</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>640</v>
+      </c>
+      <c r="I30" t="s">
+        <v>641</v>
+      </c>
+      <c r="J30" t="s">
+        <v>642</v>
+      </c>
+      <c r="K30" t="s">
+        <v>643</v>
+      </c>
+      <c r="L30" t="s">
+        <v>644</v>
+      </c>
+      <c r="M30" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="N30" t="s">
+        <v>646</v>
+      </c>
+      <c r="O30" t="s">
+        <v>647</v>
+      </c>
+      <c r="P30" s="4" t="s">
+        <v>648</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>650</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>651</v>
+      </c>
+      <c r="D31" t="s">
+        <v>652</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>653</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>654</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>655</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>656</v>
+      </c>
+      <c r="N31" t="s">
+        <v>657</v>
+      </c>
+      <c r="O31" s="4" t="s">
+        <v>658</v>
+      </c>
+      <c r="P31" s="4" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="F32" t="s">
+        <v>660</v>
+      </c>
+      <c r="G32" t="s">
+        <v>661</v>
+      </c>
+      <c r="H32" t="s">
+        <v>662</v>
+      </c>
+      <c r="N32" t="s">
+        <v>663</v>
+      </c>
+      <c r="O32" t="s">
+        <v>664</v>
+      </c>
+      <c r="P32" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
+        <v>26</v>
+      </c>
+      <c r="F33" t="s">
+        <v>666</v>
+      </c>
+      <c r="G33" t="s">
+        <v>667</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>668</v>
+      </c>
+      <c r="N33" t="s">
+        <v>669</v>
+      </c>
+      <c r="O33" t="s">
+        <v>670</v>
+      </c>
+      <c r="P33" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
+        <v>27</v>
+      </c>
+      <c r="F34" t="s">
+        <v>672</v>
+      </c>
+      <c r="G34" t="s">
+        <v>673</v>
+      </c>
+      <c r="H34" t="s">
+        <v>674</v>
+      </c>
+      <c r="N34" t="s">
+        <v>675</v>
+      </c>
+      <c r="O34" t="s">
+        <v>676</v>
+      </c>
+      <c r="P34" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
+        <v>28</v>
+      </c>
+      <c r="F35" t="s">
+        <v>678</v>
+      </c>
+      <c r="G35" t="s">
+        <v>679</v>
+      </c>
+      <c r="H35" t="s">
+        <v>680</v>
+      </c>
+      <c r="N35" t="s">
+        <v>681</v>
+      </c>
+      <c r="O35" t="s">
+        <v>682</v>
+      </c>
+      <c r="P35" s="4" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
+        <v>29</v>
+      </c>
+      <c r="M36" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A37" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A38" t="s">
+        <v>31</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>685</v>
+      </c>
+      <c r="E38" t="s">
+        <v>686</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>687</v>
+      </c>
+      <c r="K38" s="4" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A39" t="s">
+        <v>32</v>
+      </c>
+      <c r="K39" t="s">
+        <v>689</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -7732,9 +10318,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FBC11CE-5322-4E11-A852-5B719841BCB0}">
-  <dimension ref="A1:Q18"/>
+  <dimension ref="A1:Q39"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P35" sqref="P35"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
@@ -8354,6 +10942,565 @@
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
     </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A23" s="5"/>
+      <c r="B23" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K23" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="L23" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="M23" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="N23" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="O23" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="P23" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q23" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A24" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9" t="s">
+        <v>690</v>
+      </c>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="10"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A25" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6" t="s">
+        <v>691</v>
+      </c>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="7"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A26" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" s="9"/>
+      <c r="C26" s="11" t="s">
+        <v>692</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>693</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>694</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>695</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>696</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>697</v>
+      </c>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9" t="s">
+        <v>698</v>
+      </c>
+      <c r="L26" s="9" t="s">
+        <v>699</v>
+      </c>
+      <c r="M26" s="9" t="s">
+        <v>700</v>
+      </c>
+      <c r="N26" s="9" t="s">
+        <v>701</v>
+      </c>
+      <c r="O26" s="9" t="s">
+        <v>702</v>
+      </c>
+      <c r="P26" s="9" t="s">
+        <v>703</v>
+      </c>
+      <c r="Q26" s="10"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A27" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="11" t="s">
+        <v>704</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>705</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>706</v>
+      </c>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6" t="s">
+        <v>707</v>
+      </c>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="6"/>
+      <c r="P27" s="6"/>
+      <c r="Q27" s="7"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A28" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9" t="s">
+        <v>708</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>709</v>
+      </c>
+      <c r="H28" s="11" t="s">
+        <v>710</v>
+      </c>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="9" t="s">
+        <v>711</v>
+      </c>
+      <c r="O28" s="9" t="s">
+        <v>712</v>
+      </c>
+      <c r="P28" s="11" t="s">
+        <v>713</v>
+      </c>
+      <c r="Q28" s="10"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A29" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="11" t="s">
+        <v>714</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>715</v>
+      </c>
+      <c r="H29" s="11" t="s">
+        <v>716</v>
+      </c>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6" t="s">
+        <v>717</v>
+      </c>
+      <c r="O29" s="11" t="s">
+        <v>718</v>
+      </c>
+      <c r="P29" s="11" t="s">
+        <v>719</v>
+      </c>
+      <c r="Q29" s="7"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A30" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>720</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>721</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>722</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>723</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>724</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>725</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>726</v>
+      </c>
+      <c r="I30" s="9" t="s">
+        <v>727</v>
+      </c>
+      <c r="J30" s="9" t="s">
+        <v>728</v>
+      </c>
+      <c r="K30" s="9" t="s">
+        <v>729</v>
+      </c>
+      <c r="L30" s="9" t="s">
+        <v>730</v>
+      </c>
+      <c r="M30" s="9" t="s">
+        <v>731</v>
+      </c>
+      <c r="N30" s="9" t="s">
+        <v>732</v>
+      </c>
+      <c r="O30" s="9" t="s">
+        <v>733</v>
+      </c>
+      <c r="P30" s="11" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q30" s="10" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A31" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>736</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>737</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>738</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>739</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>740</v>
+      </c>
+      <c r="G31" s="11" t="s">
+        <v>741</v>
+      </c>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="6" t="s">
+        <v>743</v>
+      </c>
+      <c r="O31" s="6" t="s">
+        <v>744</v>
+      </c>
+      <c r="P31" s="6" t="s">
+        <v>745</v>
+      </c>
+      <c r="Q31" s="7"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A32" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9" t="s">
+        <v>746</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>747</v>
+      </c>
+      <c r="H32" s="11" t="s">
+        <v>748</v>
+      </c>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="9" t="s">
+        <v>749</v>
+      </c>
+      <c r="O32" s="9" t="s">
+        <v>750</v>
+      </c>
+      <c r="P32" s="9" t="s">
+        <v>751</v>
+      </c>
+      <c r="Q32" s="10"/>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A33" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6" t="s">
+        <v>752</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>753</v>
+      </c>
+      <c r="H33" s="11" t="s">
+        <v>754</v>
+      </c>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="6"/>
+      <c r="N33" s="6" t="s">
+        <v>755</v>
+      </c>
+      <c r="O33" s="6" t="s">
+        <v>756</v>
+      </c>
+      <c r="P33" s="6" t="s">
+        <v>757</v>
+      </c>
+      <c r="Q33" s="7"/>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A34" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9" t="s">
+        <v>758</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>759</v>
+      </c>
+      <c r="H34" s="9" t="s">
+        <v>760</v>
+      </c>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="9" t="s">
+        <v>761</v>
+      </c>
+      <c r="O34" s="9" t="s">
+        <v>762</v>
+      </c>
+      <c r="P34" s="9" t="s">
+        <v>763</v>
+      </c>
+      <c r="Q34" s="10"/>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A35" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6" t="s">
+        <v>764</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>765</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>766</v>
+      </c>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="6"/>
+      <c r="N35" s="6" t="s">
+        <v>767</v>
+      </c>
+      <c r="O35" s="6" t="s">
+        <v>768</v>
+      </c>
+      <c r="P35" s="11" t="s">
+        <v>769</v>
+      </c>
+      <c r="Q35" s="7"/>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A36" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9" t="s">
+        <v>770</v>
+      </c>
+      <c r="N36" s="9"/>
+      <c r="O36" s="9"/>
+      <c r="P36" s="9"/>
+      <c r="Q36" s="10"/>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A37" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6"/>
+      <c r="M37" s="6"/>
+      <c r="N37" s="6"/>
+      <c r="O37" s="6"/>
+      <c r="P37" s="6"/>
+      <c r="Q37" s="7"/>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A38" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9" t="s">
+        <v>771</v>
+      </c>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9" t="s">
+        <v>772</v>
+      </c>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9" t="s">
+        <v>773</v>
+      </c>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9" t="s">
+        <v>774</v>
+      </c>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="9"/>
+      <c r="O38" s="9"/>
+      <c r="P38" s="9"/>
+      <c r="Q38" s="10"/>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A39" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6" t="s">
+        <v>775</v>
+      </c>
+      <c r="L39" s="6"/>
+      <c r="M39" s="6"/>
+      <c r="N39" s="6"/>
+      <c r="O39" s="6"/>
+      <c r="P39" s="6"/>
+      <c r="Q39" s="7"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -8364,9 +11511,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A51FB7A-B5BA-485F-9AAA-2ED9C33CF870}">
-  <dimension ref="A1:Q18"/>
+  <dimension ref="A1:Q39"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:Q39"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
@@ -9334,6 +12483,905 @@
         <v>975</v>
       </c>
     </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A23" s="5"/>
+      <c r="B23" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K23" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="L23" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="M23" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="N23" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="O23" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="P23" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q23" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A24" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>776</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>777</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>778</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>779</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>780</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>781</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>782</v>
+      </c>
+      <c r="I24" s="9" t="s">
+        <v>783</v>
+      </c>
+      <c r="J24" s="9" t="s">
+        <v>784</v>
+      </c>
+      <c r="K24" s="9" t="s">
+        <v>785</v>
+      </c>
+      <c r="L24" s="9" t="s">
+        <v>786</v>
+      </c>
+      <c r="M24" s="9" t="s">
+        <v>787</v>
+      </c>
+      <c r="N24" s="9" t="s">
+        <v>788</v>
+      </c>
+      <c r="O24" s="9" t="s">
+        <v>789</v>
+      </c>
+      <c r="P24" s="9" t="s">
+        <v>790</v>
+      </c>
+      <c r="Q24" s="10" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A25" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>792</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>793</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>794</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>795</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>796</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>797</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>798</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>799</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>800</v>
+      </c>
+      <c r="K25" s="6" t="s">
+        <v>801</v>
+      </c>
+      <c r="L25" s="6" t="s">
+        <v>802</v>
+      </c>
+      <c r="M25" s="6" t="s">
+        <v>803</v>
+      </c>
+      <c r="N25" s="6" t="s">
+        <v>804</v>
+      </c>
+      <c r="O25" s="6" t="s">
+        <v>805</v>
+      </c>
+      <c r="P25" s="6" t="s">
+        <v>806</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A26" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>808</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>809</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>810</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>811</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>812</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>813</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>814</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>815</v>
+      </c>
+      <c r="J26" s="9" t="s">
+        <v>816</v>
+      </c>
+      <c r="K26" s="9" t="s">
+        <v>817</v>
+      </c>
+      <c r="L26" s="9" t="s">
+        <v>818</v>
+      </c>
+      <c r="M26" s="9" t="s">
+        <v>819</v>
+      </c>
+      <c r="N26" s="9" t="s">
+        <v>820</v>
+      </c>
+      <c r="O26" s="9" t="s">
+        <v>821</v>
+      </c>
+      <c r="P26" s="9" t="s">
+        <v>822</v>
+      </c>
+      <c r="Q26" s="10" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A27" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>824</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>825</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>826</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>827</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>828</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>829</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>830</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>831</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>832</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>833</v>
+      </c>
+      <c r="L27" s="6" t="s">
+        <v>834</v>
+      </c>
+      <c r="M27" s="6" t="s">
+        <v>835</v>
+      </c>
+      <c r="N27" s="6" t="s">
+        <v>836</v>
+      </c>
+      <c r="O27" s="6" t="s">
+        <v>837</v>
+      </c>
+      <c r="P27" s="6" t="s">
+        <v>838</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A28" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>840</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>840</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>840</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>840</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>840</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>840</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>840</v>
+      </c>
+      <c r="I28" s="9" t="s">
+        <v>840</v>
+      </c>
+      <c r="J28" s="9" t="s">
+        <v>841</v>
+      </c>
+      <c r="K28" s="9" t="s">
+        <v>841</v>
+      </c>
+      <c r="L28" s="9" t="s">
+        <v>841</v>
+      </c>
+      <c r="M28" s="9" t="s">
+        <v>841</v>
+      </c>
+      <c r="N28" s="9" t="s">
+        <v>841</v>
+      </c>
+      <c r="O28" s="9" t="s">
+        <v>841</v>
+      </c>
+      <c r="P28" s="9" t="s">
+        <v>841</v>
+      </c>
+      <c r="Q28" s="10" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A29" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>842</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>842</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>842</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>842</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>842</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>842</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>842</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>842</v>
+      </c>
+      <c r="J29" s="6" t="s">
+        <v>843</v>
+      </c>
+      <c r="K29" s="6" t="s">
+        <v>843</v>
+      </c>
+      <c r="L29" s="6" t="s">
+        <v>843</v>
+      </c>
+      <c r="M29" s="6" t="s">
+        <v>843</v>
+      </c>
+      <c r="N29" s="6" t="s">
+        <v>843</v>
+      </c>
+      <c r="O29" s="6" t="s">
+        <v>843</v>
+      </c>
+      <c r="P29" s="6" t="s">
+        <v>843</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A30" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>844</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>844</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>844</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>844</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>844</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>844</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>844</v>
+      </c>
+      <c r="I30" s="9" t="s">
+        <v>844</v>
+      </c>
+      <c r="J30" s="9" t="s">
+        <v>845</v>
+      </c>
+      <c r="K30" s="9" t="s">
+        <v>845</v>
+      </c>
+      <c r="L30" s="9" t="s">
+        <v>845</v>
+      </c>
+      <c r="M30" s="9" t="s">
+        <v>845</v>
+      </c>
+      <c r="N30" s="9" t="s">
+        <v>845</v>
+      </c>
+      <c r="O30" s="9" t="s">
+        <v>845</v>
+      </c>
+      <c r="P30" s="9" t="s">
+        <v>845</v>
+      </c>
+      <c r="Q30" s="10" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A31" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>846</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>846</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>846</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>846</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>846</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>846</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>846</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>846</v>
+      </c>
+      <c r="J31" s="6" t="s">
+        <v>847</v>
+      </c>
+      <c r="K31" s="6" t="s">
+        <v>847</v>
+      </c>
+      <c r="L31" s="6" t="s">
+        <v>847</v>
+      </c>
+      <c r="M31" s="6" t="s">
+        <v>847</v>
+      </c>
+      <c r="N31" s="6" t="s">
+        <v>847</v>
+      </c>
+      <c r="O31" s="6" t="s">
+        <v>847</v>
+      </c>
+      <c r="P31" s="6" t="s">
+        <v>847</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A32" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>848</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>849</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>850</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>851</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>852</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>853</v>
+      </c>
+      <c r="H32" s="9" t="s">
+        <v>854</v>
+      </c>
+      <c r="I32" s="9" t="s">
+        <v>855</v>
+      </c>
+      <c r="J32" s="9" t="s">
+        <v>856</v>
+      </c>
+      <c r="K32" s="9" t="s">
+        <v>857</v>
+      </c>
+      <c r="L32" s="9" t="s">
+        <v>858</v>
+      </c>
+      <c r="M32" s="9" t="s">
+        <v>859</v>
+      </c>
+      <c r="N32" s="9" t="s">
+        <v>860</v>
+      </c>
+      <c r="O32" s="9" t="s">
+        <v>861</v>
+      </c>
+      <c r="P32" s="9" t="s">
+        <v>862</v>
+      </c>
+      <c r="Q32" s="10" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A33" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>864</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>865</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>866</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>867</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>868</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>869</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>870</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>871</v>
+      </c>
+      <c r="J33" s="6" t="s">
+        <v>872</v>
+      </c>
+      <c r="K33" s="6" t="s">
+        <v>873</v>
+      </c>
+      <c r="L33" s="6" t="s">
+        <v>874</v>
+      </c>
+      <c r="M33" s="6" t="s">
+        <v>875</v>
+      </c>
+      <c r="N33" s="6" t="s">
+        <v>876</v>
+      </c>
+      <c r="O33" s="6" t="s">
+        <v>877</v>
+      </c>
+      <c r="P33" s="6" t="s">
+        <v>878</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A34" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>880</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>881</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>882</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>883</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>884</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>885</v>
+      </c>
+      <c r="H34" s="9" t="s">
+        <v>886</v>
+      </c>
+      <c r="I34" s="9" t="s">
+        <v>887</v>
+      </c>
+      <c r="J34" s="9" t="s">
+        <v>888</v>
+      </c>
+      <c r="K34" s="9" t="s">
+        <v>889</v>
+      </c>
+      <c r="L34" s="9" t="s">
+        <v>890</v>
+      </c>
+      <c r="M34" s="9" t="s">
+        <v>891</v>
+      </c>
+      <c r="N34" s="9" t="s">
+        <v>892</v>
+      </c>
+      <c r="O34" s="9" t="s">
+        <v>893</v>
+      </c>
+      <c r="P34" s="9" t="s">
+        <v>894</v>
+      </c>
+      <c r="Q34" s="10" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A35" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>896</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>897</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>898</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>899</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>900</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>901</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>902</v>
+      </c>
+      <c r="I35" s="6" t="s">
+        <v>903</v>
+      </c>
+      <c r="J35" s="6" t="s">
+        <v>904</v>
+      </c>
+      <c r="K35" s="6" t="s">
+        <v>905</v>
+      </c>
+      <c r="L35" s="6" t="s">
+        <v>906</v>
+      </c>
+      <c r="M35" s="6" t="s">
+        <v>907</v>
+      </c>
+      <c r="N35" s="6" t="s">
+        <v>908</v>
+      </c>
+      <c r="O35" s="6" t="s">
+        <v>909</v>
+      </c>
+      <c r="P35" s="6" t="s">
+        <v>910</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A36" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>912</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>913</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>914</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>915</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>916</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>917</v>
+      </c>
+      <c r="H36" s="9" t="s">
+        <v>918</v>
+      </c>
+      <c r="I36" s="9" t="s">
+        <v>919</v>
+      </c>
+      <c r="J36" s="9" t="s">
+        <v>920</v>
+      </c>
+      <c r="K36" s="9" t="s">
+        <v>921</v>
+      </c>
+      <c r="L36" s="9" t="s">
+        <v>922</v>
+      </c>
+      <c r="M36" s="9" t="s">
+        <v>923</v>
+      </c>
+      <c r="N36" s="9" t="s">
+        <v>924</v>
+      </c>
+      <c r="O36" s="9" t="s">
+        <v>925</v>
+      </c>
+      <c r="P36" s="9" t="s">
+        <v>926</v>
+      </c>
+      <c r="Q36" s="10" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A37" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>928</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>929</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>930</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>931</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>932</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>933</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>934</v>
+      </c>
+      <c r="I37" s="6" t="s">
+        <v>935</v>
+      </c>
+      <c r="J37" s="6" t="s">
+        <v>936</v>
+      </c>
+      <c r="K37" s="6" t="s">
+        <v>937</v>
+      </c>
+      <c r="L37" s="6" t="s">
+        <v>938</v>
+      </c>
+      <c r="M37" s="6" t="s">
+        <v>939</v>
+      </c>
+      <c r="N37" s="6" t="s">
+        <v>940</v>
+      </c>
+      <c r="O37" s="6" t="s">
+        <v>941</v>
+      </c>
+      <c r="P37" s="6" t="s">
+        <v>942</v>
+      </c>
+      <c r="Q37" s="7" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A38" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>944</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>945</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>946</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>947</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>948</v>
+      </c>
+      <c r="G38" s="9" t="s">
+        <v>949</v>
+      </c>
+      <c r="H38" s="9" t="s">
+        <v>950</v>
+      </c>
+      <c r="I38" s="9" t="s">
+        <v>951</v>
+      </c>
+      <c r="J38" s="9" t="s">
+        <v>952</v>
+      </c>
+      <c r="K38" s="9" t="s">
+        <v>953</v>
+      </c>
+      <c r="L38" s="9" t="s">
+        <v>954</v>
+      </c>
+      <c r="M38" s="9" t="s">
+        <v>955</v>
+      </c>
+      <c r="N38" s="9" t="s">
+        <v>956</v>
+      </c>
+      <c r="O38" s="9" t="s">
+        <v>957</v>
+      </c>
+      <c r="P38" s="9" t="s">
+        <v>958</v>
+      </c>
+      <c r="Q38" s="10" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A39" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>960</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>961</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>962</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>963</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>964</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>965</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>966</v>
+      </c>
+      <c r="I39" s="6" t="s">
+        <v>967</v>
+      </c>
+      <c r="J39" s="6" t="s">
+        <v>968</v>
+      </c>
+      <c r="K39" s="6" t="s">
+        <v>969</v>
+      </c>
+      <c r="L39" s="6" t="s">
+        <v>970</v>
+      </c>
+      <c r="M39" s="6" t="s">
+        <v>971</v>
+      </c>
+      <c r="N39" s="6" t="s">
+        <v>972</v>
+      </c>
+      <c r="O39" s="6" t="s">
+        <v>973</v>
+      </c>
+      <c r="P39" s="6" t="s">
+        <v>974</v>
+      </c>
+      <c r="Q39" s="7" t="s">
+        <v>975</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -9344,9 +13392,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC54877C-0099-46F6-90F7-92BA5AA488CC}">
-  <dimension ref="A1:Q18"/>
+  <dimension ref="A1:Q39"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:Q39"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
@@ -10314,6 +14364,905 @@
         <v>1175</v>
       </c>
     </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A23" s="5"/>
+      <c r="B23" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K23" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="L23" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="M23" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="N23" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="O23" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="P23" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q23" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A24" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>976</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>977</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>978</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>979</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>980</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>981</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>982</v>
+      </c>
+      <c r="I24" s="9" t="s">
+        <v>983</v>
+      </c>
+      <c r="J24" s="9" t="s">
+        <v>984</v>
+      </c>
+      <c r="K24" s="9" t="s">
+        <v>985</v>
+      </c>
+      <c r="L24" s="9" t="s">
+        <v>986</v>
+      </c>
+      <c r="M24" s="9" t="s">
+        <v>987</v>
+      </c>
+      <c r="N24" s="9" t="s">
+        <v>988</v>
+      </c>
+      <c r="O24" s="9" t="s">
+        <v>989</v>
+      </c>
+      <c r="P24" s="9" t="s">
+        <v>990</v>
+      </c>
+      <c r="Q24" s="10" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A25" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>992</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>993</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>994</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>995</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>996</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>997</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>998</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>999</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>1000</v>
+      </c>
+      <c r="K25" s="6" t="s">
+        <v>1001</v>
+      </c>
+      <c r="L25" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="M25" s="6" t="s">
+        <v>1003</v>
+      </c>
+      <c r="N25" s="6" t="s">
+        <v>1004</v>
+      </c>
+      <c r="O25" s="6" t="s">
+        <v>1005</v>
+      </c>
+      <c r="P25" s="6" t="s">
+        <v>1006</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A26" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>1011</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>1012</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>1013</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>1014</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>1015</v>
+      </c>
+      <c r="J26" s="9" t="s">
+        <v>1016</v>
+      </c>
+      <c r="K26" s="9" t="s">
+        <v>1017</v>
+      </c>
+      <c r="L26" s="9" t="s">
+        <v>1018</v>
+      </c>
+      <c r="M26" s="9" t="s">
+        <v>1019</v>
+      </c>
+      <c r="N26" s="9" t="s">
+        <v>1020</v>
+      </c>
+      <c r="O26" s="9" t="s">
+        <v>1021</v>
+      </c>
+      <c r="P26" s="9" t="s">
+        <v>1022</v>
+      </c>
+      <c r="Q26" s="10" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A27" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>1026</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>1027</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>1028</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>1030</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>1031</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>1032</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>1033</v>
+      </c>
+      <c r="L27" s="6" t="s">
+        <v>1034</v>
+      </c>
+      <c r="M27" s="6" t="s">
+        <v>1035</v>
+      </c>
+      <c r="N27" s="6" t="s">
+        <v>1036</v>
+      </c>
+      <c r="O27" s="6" t="s">
+        <v>1037</v>
+      </c>
+      <c r="P27" s="6" t="s">
+        <v>1038</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A28" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>1040</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>1040</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>1040</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>1040</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>1040</v>
+      </c>
+      <c r="I28" s="9" t="s">
+        <v>1040</v>
+      </c>
+      <c r="J28" s="9" t="s">
+        <v>1041</v>
+      </c>
+      <c r="K28" s="9" t="s">
+        <v>1041</v>
+      </c>
+      <c r="L28" s="9" t="s">
+        <v>1041</v>
+      </c>
+      <c r="M28" s="9" t="s">
+        <v>1041</v>
+      </c>
+      <c r="N28" s="9" t="s">
+        <v>1041</v>
+      </c>
+      <c r="O28" s="9" t="s">
+        <v>1041</v>
+      </c>
+      <c r="P28" s="9" t="s">
+        <v>1041</v>
+      </c>
+      <c r="Q28" s="10" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A29" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>1042</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>1042</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>1042</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>1042</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>1042</v>
+      </c>
+      <c r="J29" s="6" t="s">
+        <v>1043</v>
+      </c>
+      <c r="K29" s="6" t="s">
+        <v>1043</v>
+      </c>
+      <c r="L29" s="6" t="s">
+        <v>1043</v>
+      </c>
+      <c r="M29" s="6" t="s">
+        <v>1043</v>
+      </c>
+      <c r="N29" s="6" t="s">
+        <v>1043</v>
+      </c>
+      <c r="O29" s="6" t="s">
+        <v>1043</v>
+      </c>
+      <c r="P29" s="6" t="s">
+        <v>1043</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A30" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>1044</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>1044</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>1044</v>
+      </c>
+      <c r="I30" s="9" t="s">
+        <v>1044</v>
+      </c>
+      <c r="J30" s="9" t="s">
+        <v>1045</v>
+      </c>
+      <c r="K30" s="9" t="s">
+        <v>1045</v>
+      </c>
+      <c r="L30" s="9" t="s">
+        <v>1045</v>
+      </c>
+      <c r="M30" s="9" t="s">
+        <v>1045</v>
+      </c>
+      <c r="N30" s="9" t="s">
+        <v>1045</v>
+      </c>
+      <c r="O30" s="9" t="s">
+        <v>1045</v>
+      </c>
+      <c r="P30" s="9" t="s">
+        <v>1045</v>
+      </c>
+      <c r="Q30" s="10" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A31" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>1046</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>1046</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>1046</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>1046</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>1046</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>1046</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>1046</v>
+      </c>
+      <c r="J31" s="6" t="s">
+        <v>1047</v>
+      </c>
+      <c r="K31" s="6" t="s">
+        <v>1047</v>
+      </c>
+      <c r="L31" s="6" t="s">
+        <v>1047</v>
+      </c>
+      <c r="M31" s="6" t="s">
+        <v>1047</v>
+      </c>
+      <c r="N31" s="6" t="s">
+        <v>1047</v>
+      </c>
+      <c r="O31" s="6" t="s">
+        <v>1047</v>
+      </c>
+      <c r="P31" s="6" t="s">
+        <v>1047</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A32" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>1049</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>1050</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>1051</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>1052</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>1053</v>
+      </c>
+      <c r="H32" s="9" t="s">
+        <v>1054</v>
+      </c>
+      <c r="I32" s="9" t="s">
+        <v>1055</v>
+      </c>
+      <c r="J32" s="9" t="s">
+        <v>1056</v>
+      </c>
+      <c r="K32" s="9" t="s">
+        <v>1057</v>
+      </c>
+      <c r="L32" s="9" t="s">
+        <v>1058</v>
+      </c>
+      <c r="M32" s="9" t="s">
+        <v>1059</v>
+      </c>
+      <c r="N32" s="9" t="s">
+        <v>1060</v>
+      </c>
+      <c r="O32" s="9" t="s">
+        <v>1061</v>
+      </c>
+      <c r="P32" s="9" t="s">
+        <v>1062</v>
+      </c>
+      <c r="Q32" s="10" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A33" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>1067</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>1068</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>1069</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>1070</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>1071</v>
+      </c>
+      <c r="J33" s="6" t="s">
+        <v>1072</v>
+      </c>
+      <c r="K33" s="6" t="s">
+        <v>1073</v>
+      </c>
+      <c r="L33" s="6" t="s">
+        <v>1074</v>
+      </c>
+      <c r="M33" s="6" t="s">
+        <v>1075</v>
+      </c>
+      <c r="N33" s="6" t="s">
+        <v>1076</v>
+      </c>
+      <c r="O33" s="6" t="s">
+        <v>1077</v>
+      </c>
+      <c r="P33" s="6" t="s">
+        <v>1078</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A34" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>1082</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>1083</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>1084</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>1085</v>
+      </c>
+      <c r="H34" s="9" t="s">
+        <v>1086</v>
+      </c>
+      <c r="I34" s="9" t="s">
+        <v>1087</v>
+      </c>
+      <c r="J34" s="9" t="s">
+        <v>1088</v>
+      </c>
+      <c r="K34" s="9" t="s">
+        <v>1089</v>
+      </c>
+      <c r="L34" s="9" t="s">
+        <v>1090</v>
+      </c>
+      <c r="M34" s="9" t="s">
+        <v>1091</v>
+      </c>
+      <c r="N34" s="9" t="s">
+        <v>1092</v>
+      </c>
+      <c r="O34" s="9" t="s">
+        <v>1093</v>
+      </c>
+      <c r="P34" s="9" t="s">
+        <v>1094</v>
+      </c>
+      <c r="Q34" s="10" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A35" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>1097</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>1098</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>1099</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>1100</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>1101</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>1102</v>
+      </c>
+      <c r="I35" s="6" t="s">
+        <v>1103</v>
+      </c>
+      <c r="J35" s="6" t="s">
+        <v>1104</v>
+      </c>
+      <c r="K35" s="6" t="s">
+        <v>1105</v>
+      </c>
+      <c r="L35" s="6" t="s">
+        <v>1106</v>
+      </c>
+      <c r="M35" s="6" t="s">
+        <v>1107</v>
+      </c>
+      <c r="N35" s="6" t="s">
+        <v>1108</v>
+      </c>
+      <c r="O35" s="6" t="s">
+        <v>1109</v>
+      </c>
+      <c r="P35" s="6" t="s">
+        <v>1110</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A36" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>1113</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>1114</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>1115</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>1116</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>1117</v>
+      </c>
+      <c r="H36" s="9" t="s">
+        <v>1118</v>
+      </c>
+      <c r="I36" s="9" t="s">
+        <v>1119</v>
+      </c>
+      <c r="J36" s="9" t="s">
+        <v>1120</v>
+      </c>
+      <c r="K36" s="9" t="s">
+        <v>1121</v>
+      </c>
+      <c r="L36" s="9" t="s">
+        <v>1122</v>
+      </c>
+      <c r="M36" s="9" t="s">
+        <v>1123</v>
+      </c>
+      <c r="N36" s="9" t="s">
+        <v>1124</v>
+      </c>
+      <c r="O36" s="9" t="s">
+        <v>1125</v>
+      </c>
+      <c r="P36" s="9" t="s">
+        <v>1126</v>
+      </c>
+      <c r="Q36" s="10" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A37" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>1129</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>1130</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>1131</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>1132</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>1133</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>1134</v>
+      </c>
+      <c r="I37" s="6" t="s">
+        <v>1135</v>
+      </c>
+      <c r="J37" s="6" t="s">
+        <v>1136</v>
+      </c>
+      <c r="K37" s="6" t="s">
+        <v>1137</v>
+      </c>
+      <c r="L37" s="6" t="s">
+        <v>1138</v>
+      </c>
+      <c r="M37" s="6" t="s">
+        <v>1139</v>
+      </c>
+      <c r="N37" s="6" t="s">
+        <v>1140</v>
+      </c>
+      <c r="O37" s="6" t="s">
+        <v>1141</v>
+      </c>
+      <c r="P37" s="6" t="s">
+        <v>1142</v>
+      </c>
+      <c r="Q37" s="7" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A38" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>1145</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>1146</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>1147</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>1148</v>
+      </c>
+      <c r="G38" s="9" t="s">
+        <v>1149</v>
+      </c>
+      <c r="H38" s="9" t="s">
+        <v>1150</v>
+      </c>
+      <c r="I38" s="9" t="s">
+        <v>1151</v>
+      </c>
+      <c r="J38" s="9" t="s">
+        <v>1152</v>
+      </c>
+      <c r="K38" s="9" t="s">
+        <v>1153</v>
+      </c>
+      <c r="L38" s="9" t="s">
+        <v>1154</v>
+      </c>
+      <c r="M38" s="9" t="s">
+        <v>1155</v>
+      </c>
+      <c r="N38" s="9" t="s">
+        <v>1156</v>
+      </c>
+      <c r="O38" s="9" t="s">
+        <v>1157</v>
+      </c>
+      <c r="P38" s="9" t="s">
+        <v>1158</v>
+      </c>
+      <c r="Q38" s="10" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A39" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>1162</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>1163</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>1164</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>1165</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>1166</v>
+      </c>
+      <c r="I39" s="6" t="s">
+        <v>1167</v>
+      </c>
+      <c r="J39" s="6" t="s">
+        <v>1168</v>
+      </c>
+      <c r="K39" s="6" t="s">
+        <v>1169</v>
+      </c>
+      <c r="L39" s="6" t="s">
+        <v>1170</v>
+      </c>
+      <c r="M39" s="6" t="s">
+        <v>1171</v>
+      </c>
+      <c r="N39" s="6" t="s">
+        <v>1172</v>
+      </c>
+      <c r="O39" s="6" t="s">
+        <v>1173</v>
+      </c>
+      <c r="P39" s="6" t="s">
+        <v>1174</v>
+      </c>
+      <c r="Q39" s="7" t="s">
+        <v>1175</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/docs/Z80.xlsx
+++ b/docs/Z80.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dotne\source\repos\kliveide\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{756094DE-C507-4DAF-9BC2-9F3F93C0A57D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E326B678-C319-4036-9ACB-2D3F29D0A5E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" activeTab="6" xr2:uid="{5CA8A63B-F490-42DA-8730-76D66EBE7502}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" activeTab="1" xr2:uid="{5CA8A63B-F490-42DA-8730-76D66EBE7502}"/>
   </bookViews>
   <sheets>
     <sheet name="Standard" sheetId="2" r:id="rId1"/>
@@ -129,7 +129,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1607" uniqueCount="1176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3095" uniqueCount="1176">
   <si>
     <t>Column1</t>
   </si>
@@ -3663,7 +3663,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3672,16 +3672,48 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor theme="9" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -3689,15 +3721,81 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Bevitel" xfId="2" builtinId="20"/>
+    <cellStyle name="Jelölőszín 1" xfId="1" builtinId="29"/>
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="119">
@@ -4732,10 +4830,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F04B26D1-A31D-4795-A91D-A81DC5C601BD}">
-  <dimension ref="A1:Q18"/>
+  <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+      <selection activeCell="R30" sqref="R30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -4852,16 +4950,16 @@
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>36</v>
       </c>
       <c r="F3" s="1" t="s">
@@ -4870,22 +4968,22 @@
       <c r="G3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="2" t="s">
         <v>39</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="2" t="s">
         <v>41</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="L3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="M3" s="2" t="s">
         <v>44</v>
       </c>
       <c r="N3" s="1" t="s">
@@ -4894,7 +4992,7 @@
       <c r="O3" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="P3" s="2" t="s">
         <v>47</v>
       </c>
       <c r="Q3" s="1" t="s">
@@ -4905,16 +5003,16 @@
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="2" t="s">
         <v>52</v>
       </c>
       <c r="F4" s="1" t="s">
@@ -4923,22 +5021,22 @@
       <c r="G4" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="2" t="s">
         <v>55</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J4" s="2" t="s">
         <v>57</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="L4" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="M4" s="2" t="s">
         <v>60</v>
       </c>
       <c r="N4" s="1" t="s">
@@ -4947,7 +5045,7 @@
       <c r="O4" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="P4" s="2" t="s">
         <v>63</v>
       </c>
       <c r="Q4" s="1" t="s">
@@ -4961,13 +5059,13 @@
       <c r="B5" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="2" t="s">
         <v>68</v>
       </c>
       <c r="F5" s="1" t="s">
@@ -4976,7 +5074,7 @@
       <c r="G5" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="2" t="s">
         <v>71</v>
       </c>
       <c r="I5" s="1" t="s">
@@ -4988,10 +5086,10 @@
       <c r="K5" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="L5" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="M5" s="2" t="s">
         <v>76</v>
       </c>
       <c r="N5" s="1" t="s">
@@ -5000,7 +5098,7 @@
       <c r="O5" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="P5" s="1" t="s">
+      <c r="P5" s="2" t="s">
         <v>79</v>
       </c>
       <c r="Q5" s="1" t="s">
@@ -5014,13 +5112,13 @@
       <c r="B6" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="2" t="s">
         <v>84</v>
       </c>
       <c r="F6" s="1" t="s">
@@ -5029,7 +5127,7 @@
       <c r="G6" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="2" t="s">
         <v>87</v>
       </c>
       <c r="I6" s="1" t="s">
@@ -5041,10 +5139,10 @@
       <c r="K6" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="L6" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="M6" s="2" t="s">
         <v>92</v>
       </c>
       <c r="N6" s="1" t="s">
@@ -5053,7 +5151,7 @@
       <c r="O6" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="P6" s="1" t="s">
+      <c r="P6" s="2" t="s">
         <v>95</v>
       </c>
       <c r="Q6" s="1" t="s">
@@ -5064,52 +5162,52 @@
       <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I7" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="J7" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="K7" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="L7" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="M7" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="N7" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="O7" s="1" t="s">
+      <c r="O7" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="P7" s="1" t="s">
+      <c r="P7" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="Q7" s="1" t="s">
+      <c r="Q7" s="2" t="s">
         <v>112</v>
       </c>
     </row>
@@ -5117,52 +5215,52 @@
       <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="I8" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="J8" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="K8" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="L8" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="M8" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="N8" s="1" t="s">
+      <c r="N8" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="O8" s="1" t="s">
+      <c r="O8" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="P8" s="1" t="s">
+      <c r="P8" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="Q8" s="1" t="s">
+      <c r="Q8" s="2" t="s">
         <v>128</v>
       </c>
     </row>
@@ -5170,52 +5268,52 @@
       <c r="A9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="I9" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="J9" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="K9" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="L9" s="1" t="s">
+      <c r="L9" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="M9" s="1" t="s">
+      <c r="M9" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="N9" s="1" t="s">
+      <c r="N9" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="O9" s="1" t="s">
+      <c r="O9" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="P9" s="1" t="s">
+      <c r="P9" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="Q9" s="1" t="s">
+      <c r="Q9" s="2" t="s">
         <v>144</v>
       </c>
     </row>
@@ -5223,52 +5321,52 @@
       <c r="A10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H10" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="I10" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="J10" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="K10" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="L10" s="1" t="s">
+      <c r="L10" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="M10" s="1" t="s">
+      <c r="M10" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="N10" s="1" t="s">
+      <c r="N10" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="O10" s="1" t="s">
+      <c r="O10" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="P10" s="1" t="s">
+      <c r="P10" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="Q10" s="1" t="s">
+      <c r="Q10" s="2" t="s">
         <v>160</v>
       </c>
     </row>
@@ -5491,7 +5589,7 @@
       <c r="B15" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="2" t="s">
         <v>226</v>
       </c>
       <c r="D15" s="1" t="s">
@@ -5544,7 +5642,7 @@
       <c r="B16" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="2" t="s">
         <v>242</v>
       </c>
       <c r="D16" s="1" t="s">
@@ -5597,7 +5695,7 @@
       <c r="B17" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="2" t="s">
         <v>258</v>
       </c>
       <c r="D17" s="1" t="s">
@@ -5650,7 +5748,7 @@
       <c r="B18" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="2" t="s">
         <v>274</v>
       </c>
       <c r="D18" s="1" t="s">
@@ -5693,6 +5791,904 @@
         <v>287</v>
       </c>
       <c r="Q18" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="B23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" t="s">
+        <v>21</v>
+      </c>
+      <c r="G23" t="s">
+        <v>22</v>
+      </c>
+      <c r="H23" t="s">
+        <v>23</v>
+      </c>
+      <c r="I23" t="s">
+        <v>24</v>
+      </c>
+      <c r="J23" t="s">
+        <v>25</v>
+      </c>
+      <c r="K23" t="s">
+        <v>26</v>
+      </c>
+      <c r="L23" t="s">
+        <v>27</v>
+      </c>
+      <c r="M23" t="s">
+        <v>28</v>
+      </c>
+      <c r="N23" t="s">
+        <v>29</v>
+      </c>
+      <c r="O23" t="s">
+        <v>30</v>
+      </c>
+      <c r="P23" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="L24" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="M24" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="N24" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="O24" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="P24" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q24" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="L25" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="M25" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="N25" t="s">
+        <v>61</v>
+      </c>
+      <c r="O25" t="s">
+        <v>62</v>
+      </c>
+      <c r="P25" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q25" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I26" t="s">
+        <v>72</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="L26" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="M26" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="N26" t="s">
+        <v>77</v>
+      </c>
+      <c r="O26" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="P26" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q26" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E27" t="s">
+        <v>84</v>
+      </c>
+      <c r="F27" t="s">
+        <v>85</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="K27" t="s">
+        <v>90</v>
+      </c>
+      <c r="L27" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="M27" t="s">
+        <v>92</v>
+      </c>
+      <c r="N27" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="O27" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="P27" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q27" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" t="s">
+        <v>97</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="G28" t="s">
+        <v>102</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="K28" t="s">
+        <v>106</v>
+      </c>
+      <c r="L28" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="M28" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="N28" t="s">
+        <v>109</v>
+      </c>
+      <c r="O28" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="P28" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q28" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D29" t="s">
+        <v>115</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="G29" t="s">
+        <v>118</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="J29" t="s">
+        <v>121</v>
+      </c>
+      <c r="K29" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="L29" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="M29" t="s">
+        <v>124</v>
+      </c>
+      <c r="N29" t="s">
+        <v>125</v>
+      </c>
+      <c r="O29" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="P29" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q29" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" t="s">
+        <v>129</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E30" t="s">
+        <v>132</v>
+      </c>
+      <c r="F30" t="s">
+        <v>133</v>
+      </c>
+      <c r="G30" t="s">
+        <v>134</v>
+      </c>
+      <c r="H30" t="s">
+        <v>135</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="K30" t="s">
+        <v>138</v>
+      </c>
+      <c r="L30" t="s">
+        <v>139</v>
+      </c>
+      <c r="M30" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="N30" t="s">
+        <v>141</v>
+      </c>
+      <c r="O30" t="s">
+        <v>142</v>
+      </c>
+      <c r="P30" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q30" s="4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="F31" t="s">
+        <v>149</v>
+      </c>
+      <c r="G31" t="s">
+        <v>150</v>
+      </c>
+      <c r="H31" t="s">
+        <v>151</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="K31" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="L31" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="M31" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="N31" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="O31" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="P31" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C32" t="s">
+        <v>162</v>
+      </c>
+      <c r="D32" t="s">
+        <v>163</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="F32" t="s">
+        <v>165</v>
+      </c>
+      <c r="G32" t="s">
+        <v>166</v>
+      </c>
+      <c r="H32" t="s">
+        <v>167</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="J32" t="s">
+        <v>169</v>
+      </c>
+      <c r="K32" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="L32" t="s">
+        <v>171</v>
+      </c>
+      <c r="M32" t="s">
+        <v>172</v>
+      </c>
+      <c r="N32" t="s">
+        <v>173</v>
+      </c>
+      <c r="O32" t="s">
+        <v>174</v>
+      </c>
+      <c r="P32" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="E33" t="s">
+        <v>180</v>
+      </c>
+      <c r="F33" t="s">
+        <v>181</v>
+      </c>
+      <c r="G33" t="s">
+        <v>182</v>
+      </c>
+      <c r="H33" t="s">
+        <v>183</v>
+      </c>
+      <c r="I33" t="s">
+        <v>184</v>
+      </c>
+      <c r="J33" t="s">
+        <v>185</v>
+      </c>
+      <c r="K33" t="s">
+        <v>186</v>
+      </c>
+      <c r="L33" t="s">
+        <v>187</v>
+      </c>
+      <c r="M33" t="s">
+        <v>188</v>
+      </c>
+      <c r="N33" t="s">
+        <v>189</v>
+      </c>
+      <c r="O33" t="s">
+        <v>190</v>
+      </c>
+      <c r="P33" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q33" s="4" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
+        <v>27</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C34" t="s">
+        <v>194</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="E34" t="s">
+        <v>196</v>
+      </c>
+      <c r="F34" t="s">
+        <v>197</v>
+      </c>
+      <c r="G34" t="s">
+        <v>198</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="K34" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="L34" t="s">
+        <v>203</v>
+      </c>
+      <c r="M34" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="N34" t="s">
+        <v>205</v>
+      </c>
+      <c r="O34" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="P34" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q34" s="4" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
+        <v>28</v>
+      </c>
+      <c r="B35" t="s">
+        <v>209</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D35" t="s">
+        <v>211</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="F35" t="s">
+        <v>213</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="I35" t="s">
+        <v>216</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="K35" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="L35" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="M35" t="s">
+        <v>220</v>
+      </c>
+      <c r="N35" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="O35" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="P35" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q35" s="4" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
+        <v>29</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="I36" t="s">
+        <v>232</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="K36" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="L36" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="M36" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="N36" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="O36" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="P36" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A37" t="s">
+        <v>30</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="F37" t="s">
+        <v>245</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="K37" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="L37" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="M37" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="N37" t="s">
+        <v>253</v>
+      </c>
+      <c r="O37" t="s">
+        <v>254</v>
+      </c>
+      <c r="P37" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q37" s="4" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A38" t="s">
+        <v>31</v>
+      </c>
+      <c r="B38" t="s">
+        <v>257</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="D38" t="s">
+        <v>259</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="F38" t="s">
+        <v>261</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="J38" t="s">
+        <v>265</v>
+      </c>
+      <c r="K38" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="L38" t="s">
+        <v>267</v>
+      </c>
+      <c r="M38" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="N38" t="s">
+        <v>269</v>
+      </c>
+      <c r="O38" t="s">
+        <v>270</v>
+      </c>
+      <c r="P38" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q38" s="4" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A39" t="s">
+        <v>32</v>
+      </c>
+      <c r="B39" t="s">
+        <v>273</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="F39" t="s">
+        <v>277</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="J39" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="K39" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="L39" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="M39" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="N39" t="s">
+        <v>285</v>
+      </c>
+      <c r="O39" t="s">
+        <v>286</v>
+      </c>
+      <c r="P39" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q39" t="s">
         <v>288</v>
       </c>
     </row>
@@ -5706,9 +6702,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58D35BA8-A7B0-4569-9920-0AF18F11F8A2}">
-  <dimension ref="A1:Q8"/>
+  <dimension ref="A1:Q19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S23" sqref="S23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
@@ -6102,6 +7100,320 @@
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
     </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I13" t="s">
+        <v>24</v>
+      </c>
+      <c r="J13" t="s">
+        <v>25</v>
+      </c>
+      <c r="K13" t="s">
+        <v>26</v>
+      </c>
+      <c r="L13" t="s">
+        <v>27</v>
+      </c>
+      <c r="M13" t="s">
+        <v>28</v>
+      </c>
+      <c r="N13" t="s">
+        <v>29</v>
+      </c>
+      <c r="O13" t="s">
+        <v>30</v>
+      </c>
+      <c r="P13" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>289</v>
+      </c>
+      <c r="C14" t="s">
+        <v>290</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="F14" t="s">
+        <v>293</v>
+      </c>
+      <c r="G14" t="s">
+        <v>294</v>
+      </c>
+      <c r="H14" t="s">
+        <v>295</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="J14" t="s">
+        <v>297</v>
+      </c>
+      <c r="K14" t="s">
+        <v>298</v>
+      </c>
+      <c r="L14" t="s">
+        <v>299</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="N14" t="s">
+        <v>293</v>
+      </c>
+      <c r="O14" t="s">
+        <v>301</v>
+      </c>
+      <c r="P14" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>304</v>
+      </c>
+      <c r="C15" t="s">
+        <v>305</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="F15" t="s">
+        <v>293</v>
+      </c>
+      <c r="G15" t="s">
+        <v>294</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="I15" t="s">
+        <v>309</v>
+      </c>
+      <c r="J15" t="s">
+        <v>310</v>
+      </c>
+      <c r="K15" t="s">
+        <v>311</v>
+      </c>
+      <c r="L15" t="s">
+        <v>312</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="N15" t="s">
+        <v>293</v>
+      </c>
+      <c r="O15" t="s">
+        <v>294</v>
+      </c>
+      <c r="P15" t="s">
+        <v>314</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>316</v>
+      </c>
+      <c r="C16" t="s">
+        <v>317</v>
+      </c>
+      <c r="D16" t="s">
+        <v>318</v>
+      </c>
+      <c r="E16" t="s">
+        <v>67</v>
+      </c>
+      <c r="F16" t="s">
+        <v>293</v>
+      </c>
+      <c r="G16" t="s">
+        <v>294</v>
+      </c>
+      <c r="H16" t="s">
+        <v>295</v>
+      </c>
+      <c r="I16" t="s">
+        <v>319</v>
+      </c>
+      <c r="J16" t="s">
+        <v>320</v>
+      </c>
+      <c r="K16" t="s">
+        <v>321</v>
+      </c>
+      <c r="L16" t="s">
+        <v>322</v>
+      </c>
+      <c r="M16" t="s">
+        <v>75</v>
+      </c>
+      <c r="N16" t="s">
+        <v>293</v>
+      </c>
+      <c r="O16" t="s">
+        <v>294</v>
+      </c>
+      <c r="P16" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" t="s">
+        <v>324</v>
+      </c>
+      <c r="C17" t="s">
+        <v>325</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="F17" t="s">
+        <v>293</v>
+      </c>
+      <c r="G17" t="s">
+        <v>294</v>
+      </c>
+      <c r="H17" t="s">
+        <v>308</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="K17" t="s">
+        <v>329</v>
+      </c>
+      <c r="L17" t="s">
+        <v>330</v>
+      </c>
+      <c r="M17" t="s">
+        <v>331</v>
+      </c>
+      <c r="N17" t="s">
+        <v>293</v>
+      </c>
+      <c r="O17" t="s">
+        <v>294</v>
+      </c>
+      <c r="P17" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" t="s">
+        <v>332</v>
+      </c>
+      <c r="C18" t="s">
+        <v>333</v>
+      </c>
+      <c r="D18" t="s">
+        <v>334</v>
+      </c>
+      <c r="E18" t="s">
+        <v>335</v>
+      </c>
+      <c r="J18" t="s">
+        <v>336</v>
+      </c>
+      <c r="K18" t="s">
+        <v>337</v>
+      </c>
+      <c r="L18" t="s">
+        <v>338</v>
+      </c>
+      <c r="M18" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="C19" t="s">
+        <v>341</v>
+      </c>
+      <c r="D19" t="s">
+        <v>342</v>
+      </c>
+      <c r="E19" t="s">
+        <v>343</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="K19" t="s">
+        <v>345</v>
+      </c>
+      <c r="L19" t="s">
+        <v>346</v>
+      </c>
+      <c r="M19" t="s">
+        <v>347</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -6112,9 +7424,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44F98147-46D6-401B-80BC-62C251AD5115}">
-  <dimension ref="A1:Q18"/>
+  <dimension ref="A1:Q39"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T26" sqref="T26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
@@ -7074,6 +8388,904 @@
         <v>603</v>
       </c>
     </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="B23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" t="s">
+        <v>21</v>
+      </c>
+      <c r="G23" t="s">
+        <v>22</v>
+      </c>
+      <c r="H23" t="s">
+        <v>23</v>
+      </c>
+      <c r="I23" t="s">
+        <v>24</v>
+      </c>
+      <c r="J23" t="s">
+        <v>25</v>
+      </c>
+      <c r="K23" t="s">
+        <v>26</v>
+      </c>
+      <c r="L23" t="s">
+        <v>27</v>
+      </c>
+      <c r="M23" t="s">
+        <v>28</v>
+      </c>
+      <c r="N23" t="s">
+        <v>29</v>
+      </c>
+      <c r="O23" t="s">
+        <v>30</v>
+      </c>
+      <c r="P23" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" t="s">
+        <v>348</v>
+      </c>
+      <c r="C24" t="s">
+        <v>349</v>
+      </c>
+      <c r="D24" t="s">
+        <v>350</v>
+      </c>
+      <c r="E24" t="s">
+        <v>351</v>
+      </c>
+      <c r="F24" t="s">
+        <v>352</v>
+      </c>
+      <c r="G24" t="s">
+        <v>353</v>
+      </c>
+      <c r="H24" t="s">
+        <v>354</v>
+      </c>
+      <c r="I24" t="s">
+        <v>355</v>
+      </c>
+      <c r="J24" t="s">
+        <v>356</v>
+      </c>
+      <c r="K24" t="s">
+        <v>357</v>
+      </c>
+      <c r="L24" t="s">
+        <v>358</v>
+      </c>
+      <c r="M24" t="s">
+        <v>359</v>
+      </c>
+      <c r="N24" t="s">
+        <v>360</v>
+      </c>
+      <c r="O24" t="s">
+        <v>361</v>
+      </c>
+      <c r="P24" t="s">
+        <v>362</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" t="s">
+        <v>364</v>
+      </c>
+      <c r="C25" t="s">
+        <v>365</v>
+      </c>
+      <c r="D25" t="s">
+        <v>366</v>
+      </c>
+      <c r="E25" t="s">
+        <v>367</v>
+      </c>
+      <c r="F25" t="s">
+        <v>368</v>
+      </c>
+      <c r="G25" t="s">
+        <v>369</v>
+      </c>
+      <c r="H25" t="s">
+        <v>370</v>
+      </c>
+      <c r="I25" t="s">
+        <v>371</v>
+      </c>
+      <c r="J25" t="s">
+        <v>372</v>
+      </c>
+      <c r="K25" t="s">
+        <v>373</v>
+      </c>
+      <c r="L25" t="s">
+        <v>374</v>
+      </c>
+      <c r="M25" t="s">
+        <v>375</v>
+      </c>
+      <c r="N25" t="s">
+        <v>376</v>
+      </c>
+      <c r="O25" t="s">
+        <v>377</v>
+      </c>
+      <c r="P25" t="s">
+        <v>378</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" t="s">
+        <v>380</v>
+      </c>
+      <c r="C26" t="s">
+        <v>381</v>
+      </c>
+      <c r="D26" t="s">
+        <v>382</v>
+      </c>
+      <c r="E26" t="s">
+        <v>383</v>
+      </c>
+      <c r="F26" t="s">
+        <v>384</v>
+      </c>
+      <c r="G26" t="s">
+        <v>385</v>
+      </c>
+      <c r="H26" t="s">
+        <v>386</v>
+      </c>
+      <c r="I26" t="s">
+        <v>387</v>
+      </c>
+      <c r="J26" t="s">
+        <v>388</v>
+      </c>
+      <c r="K26" t="s">
+        <v>389</v>
+      </c>
+      <c r="L26" t="s">
+        <v>390</v>
+      </c>
+      <c r="M26" t="s">
+        <v>391</v>
+      </c>
+      <c r="N26" t="s">
+        <v>392</v>
+      </c>
+      <c r="O26" t="s">
+        <v>393</v>
+      </c>
+      <c r="P26" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" t="s">
+        <v>396</v>
+      </c>
+      <c r="C27" t="s">
+        <v>397</v>
+      </c>
+      <c r="D27" t="s">
+        <v>398</v>
+      </c>
+      <c r="E27" t="s">
+        <v>399</v>
+      </c>
+      <c r="F27" t="s">
+        <v>400</v>
+      </c>
+      <c r="G27" t="s">
+        <v>401</v>
+      </c>
+      <c r="H27" t="s">
+        <v>402</v>
+      </c>
+      <c r="I27" t="s">
+        <v>403</v>
+      </c>
+      <c r="J27" t="s">
+        <v>404</v>
+      </c>
+      <c r="K27" t="s">
+        <v>405</v>
+      </c>
+      <c r="L27" t="s">
+        <v>406</v>
+      </c>
+      <c r="M27" t="s">
+        <v>407</v>
+      </c>
+      <c r="N27" t="s">
+        <v>408</v>
+      </c>
+      <c r="O27" t="s">
+        <v>409</v>
+      </c>
+      <c r="P27" t="s">
+        <v>410</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" t="s">
+        <v>412</v>
+      </c>
+      <c r="C28" t="s">
+        <v>413</v>
+      </c>
+      <c r="D28" t="s">
+        <v>414</v>
+      </c>
+      <c r="E28" t="s">
+        <v>415</v>
+      </c>
+      <c r="F28" t="s">
+        <v>416</v>
+      </c>
+      <c r="G28" t="s">
+        <v>417</v>
+      </c>
+      <c r="H28" t="s">
+        <v>418</v>
+      </c>
+      <c r="I28" t="s">
+        <v>419</v>
+      </c>
+      <c r="J28" t="s">
+        <v>420</v>
+      </c>
+      <c r="K28" t="s">
+        <v>421</v>
+      </c>
+      <c r="L28" t="s">
+        <v>422</v>
+      </c>
+      <c r="M28" t="s">
+        <v>423</v>
+      </c>
+      <c r="N28" t="s">
+        <v>424</v>
+      </c>
+      <c r="O28" t="s">
+        <v>425</v>
+      </c>
+      <c r="P28" t="s">
+        <v>426</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" t="s">
+        <v>428</v>
+      </c>
+      <c r="C29" t="s">
+        <v>429</v>
+      </c>
+      <c r="D29" t="s">
+        <v>430</v>
+      </c>
+      <c r="E29" t="s">
+        <v>431</v>
+      </c>
+      <c r="F29" t="s">
+        <v>432</v>
+      </c>
+      <c r="G29" t="s">
+        <v>433</v>
+      </c>
+      <c r="H29" t="s">
+        <v>434</v>
+      </c>
+      <c r="I29" t="s">
+        <v>435</v>
+      </c>
+      <c r="J29" t="s">
+        <v>436</v>
+      </c>
+      <c r="K29" t="s">
+        <v>437</v>
+      </c>
+      <c r="L29" t="s">
+        <v>438</v>
+      </c>
+      <c r="M29" t="s">
+        <v>439</v>
+      </c>
+      <c r="N29" t="s">
+        <v>440</v>
+      </c>
+      <c r="O29" t="s">
+        <v>441</v>
+      </c>
+      <c r="P29" t="s">
+        <v>442</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" t="s">
+        <v>444</v>
+      </c>
+      <c r="C30" t="s">
+        <v>445</v>
+      </c>
+      <c r="D30" t="s">
+        <v>446</v>
+      </c>
+      <c r="E30" t="s">
+        <v>447</v>
+      </c>
+      <c r="F30" t="s">
+        <v>448</v>
+      </c>
+      <c r="G30" t="s">
+        <v>449</v>
+      </c>
+      <c r="H30" t="s">
+        <v>450</v>
+      </c>
+      <c r="I30" t="s">
+        <v>451</v>
+      </c>
+      <c r="J30" t="s">
+        <v>452</v>
+      </c>
+      <c r="K30" t="s">
+        <v>453</v>
+      </c>
+      <c r="L30" t="s">
+        <v>454</v>
+      </c>
+      <c r="M30" t="s">
+        <v>455</v>
+      </c>
+      <c r="N30" t="s">
+        <v>456</v>
+      </c>
+      <c r="O30" t="s">
+        <v>457</v>
+      </c>
+      <c r="P30" t="s">
+        <v>458</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>460</v>
+      </c>
+      <c r="C31" t="s">
+        <v>461</v>
+      </c>
+      <c r="D31" t="s">
+        <v>462</v>
+      </c>
+      <c r="E31" t="s">
+        <v>463</v>
+      </c>
+      <c r="F31" t="s">
+        <v>464</v>
+      </c>
+      <c r="G31" t="s">
+        <v>465</v>
+      </c>
+      <c r="H31" t="s">
+        <v>466</v>
+      </c>
+      <c r="I31" t="s">
+        <v>467</v>
+      </c>
+      <c r="J31" t="s">
+        <v>468</v>
+      </c>
+      <c r="K31" t="s">
+        <v>469</v>
+      </c>
+      <c r="L31" t="s">
+        <v>470</v>
+      </c>
+      <c r="M31" t="s">
+        <v>471</v>
+      </c>
+      <c r="N31" t="s">
+        <v>472</v>
+      </c>
+      <c r="O31" t="s">
+        <v>473</v>
+      </c>
+      <c r="P31" t="s">
+        <v>474</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>476</v>
+      </c>
+      <c r="C32" t="s">
+        <v>477</v>
+      </c>
+      <c r="D32" t="s">
+        <v>478</v>
+      </c>
+      <c r="E32" t="s">
+        <v>479</v>
+      </c>
+      <c r="F32" t="s">
+        <v>480</v>
+      </c>
+      <c r="G32" t="s">
+        <v>481</v>
+      </c>
+      <c r="H32" t="s">
+        <v>482</v>
+      </c>
+      <c r="I32" t="s">
+        <v>483</v>
+      </c>
+      <c r="J32" t="s">
+        <v>484</v>
+      </c>
+      <c r="K32" t="s">
+        <v>485</v>
+      </c>
+      <c r="L32" t="s">
+        <v>486</v>
+      </c>
+      <c r="M32" t="s">
+        <v>487</v>
+      </c>
+      <c r="N32" t="s">
+        <v>488</v>
+      </c>
+      <c r="O32" t="s">
+        <v>489</v>
+      </c>
+      <c r="P32" t="s">
+        <v>490</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33" t="s">
+        <v>492</v>
+      </c>
+      <c r="C33" t="s">
+        <v>493</v>
+      </c>
+      <c r="D33" t="s">
+        <v>494</v>
+      </c>
+      <c r="E33" t="s">
+        <v>495</v>
+      </c>
+      <c r="F33" t="s">
+        <v>496</v>
+      </c>
+      <c r="G33" t="s">
+        <v>497</v>
+      </c>
+      <c r="H33" t="s">
+        <v>498</v>
+      </c>
+      <c r="I33" t="s">
+        <v>499</v>
+      </c>
+      <c r="J33" t="s">
+        <v>500</v>
+      </c>
+      <c r="K33" t="s">
+        <v>501</v>
+      </c>
+      <c r="L33" t="s">
+        <v>502</v>
+      </c>
+      <c r="M33" t="s">
+        <v>503</v>
+      </c>
+      <c r="N33" t="s">
+        <v>504</v>
+      </c>
+      <c r="O33" t="s">
+        <v>505</v>
+      </c>
+      <c r="P33" t="s">
+        <v>506</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
+        <v>27</v>
+      </c>
+      <c r="B34" t="s">
+        <v>508</v>
+      </c>
+      <c r="C34" t="s">
+        <v>509</v>
+      </c>
+      <c r="D34" t="s">
+        <v>510</v>
+      </c>
+      <c r="E34" t="s">
+        <v>511</v>
+      </c>
+      <c r="F34" t="s">
+        <v>512</v>
+      </c>
+      <c r="G34" t="s">
+        <v>513</v>
+      </c>
+      <c r="H34" t="s">
+        <v>514</v>
+      </c>
+      <c r="I34" t="s">
+        <v>515</v>
+      </c>
+      <c r="J34" t="s">
+        <v>516</v>
+      </c>
+      <c r="K34" t="s">
+        <v>517</v>
+      </c>
+      <c r="L34" t="s">
+        <v>518</v>
+      </c>
+      <c r="M34" t="s">
+        <v>519</v>
+      </c>
+      <c r="N34" t="s">
+        <v>520</v>
+      </c>
+      <c r="O34" t="s">
+        <v>521</v>
+      </c>
+      <c r="P34" t="s">
+        <v>522</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
+        <v>28</v>
+      </c>
+      <c r="B35" t="s">
+        <v>524</v>
+      </c>
+      <c r="C35" t="s">
+        <v>525</v>
+      </c>
+      <c r="D35" t="s">
+        <v>526</v>
+      </c>
+      <c r="E35" t="s">
+        <v>527</v>
+      </c>
+      <c r="F35" t="s">
+        <v>528</v>
+      </c>
+      <c r="G35" t="s">
+        <v>529</v>
+      </c>
+      <c r="H35" t="s">
+        <v>530</v>
+      </c>
+      <c r="I35" t="s">
+        <v>531</v>
+      </c>
+      <c r="J35" t="s">
+        <v>532</v>
+      </c>
+      <c r="K35" t="s">
+        <v>533</v>
+      </c>
+      <c r="L35" t="s">
+        <v>534</v>
+      </c>
+      <c r="M35" t="s">
+        <v>535</v>
+      </c>
+      <c r="N35" t="s">
+        <v>536</v>
+      </c>
+      <c r="O35" t="s">
+        <v>537</v>
+      </c>
+      <c r="P35" t="s">
+        <v>538</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
+        <v>29</v>
+      </c>
+      <c r="B36" t="s">
+        <v>540</v>
+      </c>
+      <c r="C36" t="s">
+        <v>541</v>
+      </c>
+      <c r="D36" t="s">
+        <v>542</v>
+      </c>
+      <c r="E36" t="s">
+        <v>543</v>
+      </c>
+      <c r="F36" t="s">
+        <v>544</v>
+      </c>
+      <c r="G36" t="s">
+        <v>545</v>
+      </c>
+      <c r="H36" t="s">
+        <v>546</v>
+      </c>
+      <c r="I36" t="s">
+        <v>547</v>
+      </c>
+      <c r="J36" t="s">
+        <v>548</v>
+      </c>
+      <c r="K36" t="s">
+        <v>549</v>
+      </c>
+      <c r="L36" t="s">
+        <v>550</v>
+      </c>
+      <c r="M36" t="s">
+        <v>551</v>
+      </c>
+      <c r="N36" t="s">
+        <v>552</v>
+      </c>
+      <c r="O36" t="s">
+        <v>553</v>
+      </c>
+      <c r="P36" t="s">
+        <v>554</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A37" t="s">
+        <v>30</v>
+      </c>
+      <c r="B37" t="s">
+        <v>556</v>
+      </c>
+      <c r="C37" t="s">
+        <v>557</v>
+      </c>
+      <c r="D37" t="s">
+        <v>558</v>
+      </c>
+      <c r="E37" t="s">
+        <v>559</v>
+      </c>
+      <c r="F37" t="s">
+        <v>560</v>
+      </c>
+      <c r="G37" t="s">
+        <v>561</v>
+      </c>
+      <c r="H37" t="s">
+        <v>562</v>
+      </c>
+      <c r="I37" t="s">
+        <v>563</v>
+      </c>
+      <c r="J37" t="s">
+        <v>564</v>
+      </c>
+      <c r="K37" t="s">
+        <v>565</v>
+      </c>
+      <c r="L37" t="s">
+        <v>566</v>
+      </c>
+      <c r="M37" t="s">
+        <v>567</v>
+      </c>
+      <c r="N37" t="s">
+        <v>568</v>
+      </c>
+      <c r="O37" t="s">
+        <v>569</v>
+      </c>
+      <c r="P37" t="s">
+        <v>570</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A38" t="s">
+        <v>31</v>
+      </c>
+      <c r="B38" t="s">
+        <v>572</v>
+      </c>
+      <c r="C38" t="s">
+        <v>573</v>
+      </c>
+      <c r="D38" t="s">
+        <v>574</v>
+      </c>
+      <c r="E38" t="s">
+        <v>575</v>
+      </c>
+      <c r="F38" t="s">
+        <v>576</v>
+      </c>
+      <c r="G38" t="s">
+        <v>577</v>
+      </c>
+      <c r="H38" t="s">
+        <v>578</v>
+      </c>
+      <c r="I38" t="s">
+        <v>579</v>
+      </c>
+      <c r="J38" t="s">
+        <v>580</v>
+      </c>
+      <c r="K38" t="s">
+        <v>581</v>
+      </c>
+      <c r="L38" t="s">
+        <v>582</v>
+      </c>
+      <c r="M38" t="s">
+        <v>583</v>
+      </c>
+      <c r="N38" t="s">
+        <v>584</v>
+      </c>
+      <c r="O38" t="s">
+        <v>585</v>
+      </c>
+      <c r="P38" t="s">
+        <v>586</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A39" t="s">
+        <v>32</v>
+      </c>
+      <c r="B39" t="s">
+        <v>588</v>
+      </c>
+      <c r="C39" t="s">
+        <v>589</v>
+      </c>
+      <c r="D39" t="s">
+        <v>590</v>
+      </c>
+      <c r="E39" t="s">
+        <v>591</v>
+      </c>
+      <c r="F39" t="s">
+        <v>592</v>
+      </c>
+      <c r="G39" t="s">
+        <v>593</v>
+      </c>
+      <c r="H39" t="s">
+        <v>594</v>
+      </c>
+      <c r="I39" t="s">
+        <v>595</v>
+      </c>
+      <c r="J39" t="s">
+        <v>596</v>
+      </c>
+      <c r="K39" t="s">
+        <v>597</v>
+      </c>
+      <c r="L39" t="s">
+        <v>598</v>
+      </c>
+      <c r="M39" t="s">
+        <v>599</v>
+      </c>
+      <c r="N39" t="s">
+        <v>600</v>
+      </c>
+      <c r="O39" t="s">
+        <v>601</v>
+      </c>
+      <c r="P39" t="s">
+        <v>602</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>603</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -7084,9 +9296,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6F51452-954B-4282-B7B0-EDD0F8B5E2F1}">
-  <dimension ref="A1:Q18"/>
+  <dimension ref="A1:Q39"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="K38" sqref="K38"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
@@ -7706,6 +9920,394 @@
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
     </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="B23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" t="s">
+        <v>21</v>
+      </c>
+      <c r="G23" t="s">
+        <v>22</v>
+      </c>
+      <c r="H23" t="s">
+        <v>23</v>
+      </c>
+      <c r="I23" t="s">
+        <v>24</v>
+      </c>
+      <c r="J23" t="s">
+        <v>25</v>
+      </c>
+      <c r="K23" t="s">
+        <v>26</v>
+      </c>
+      <c r="L23" t="s">
+        <v>27</v>
+      </c>
+      <c r="M23" t="s">
+        <v>28</v>
+      </c>
+      <c r="N23" t="s">
+        <v>29</v>
+      </c>
+      <c r="O23" t="s">
+        <v>30</v>
+      </c>
+      <c r="P23" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>17</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>18</v>
+      </c>
+      <c r="K25" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>606</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>608</v>
+      </c>
+      <c r="F26" t="s">
+        <v>609</v>
+      </c>
+      <c r="G26" t="s">
+        <v>610</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>611</v>
+      </c>
+      <c r="K26" t="s">
+        <v>612</v>
+      </c>
+      <c r="L26" s="4" t="s">
+        <v>613</v>
+      </c>
+      <c r="M26" t="s">
+        <v>614</v>
+      </c>
+      <c r="N26" t="s">
+        <v>615</v>
+      </c>
+      <c r="O26" t="s">
+        <v>616</v>
+      </c>
+      <c r="P26" s="4" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27" t="s">
+        <v>618</v>
+      </c>
+      <c r="G27" t="s">
+        <v>619</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>620</v>
+      </c>
+      <c r="K27" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>21</v>
+      </c>
+      <c r="F28" t="s">
+        <v>622</v>
+      </c>
+      <c r="G28" t="s">
+        <v>623</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>624</v>
+      </c>
+      <c r="N28" t="s">
+        <v>625</v>
+      </c>
+      <c r="O28" t="s">
+        <v>626</v>
+      </c>
+      <c r="P28" s="4" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
+        <v>22</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="G29" t="s">
+        <v>629</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>630</v>
+      </c>
+      <c r="N29" t="s">
+        <v>631</v>
+      </c>
+      <c r="O29" s="4" t="s">
+        <v>632</v>
+      </c>
+      <c r="P29" s="4" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" t="s">
+        <v>634</v>
+      </c>
+      <c r="C30" t="s">
+        <v>635</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>636</v>
+      </c>
+      <c r="E30" t="s">
+        <v>637</v>
+      </c>
+      <c r="F30" t="s">
+        <v>638</v>
+      </c>
+      <c r="G30" t="s">
+        <v>639</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>640</v>
+      </c>
+      <c r="I30" t="s">
+        <v>641</v>
+      </c>
+      <c r="J30" t="s">
+        <v>642</v>
+      </c>
+      <c r="K30" t="s">
+        <v>643</v>
+      </c>
+      <c r="L30" t="s">
+        <v>644</v>
+      </c>
+      <c r="M30" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="N30" t="s">
+        <v>646</v>
+      </c>
+      <c r="O30" t="s">
+        <v>647</v>
+      </c>
+      <c r="P30" s="4" t="s">
+        <v>648</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>650</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>651</v>
+      </c>
+      <c r="D31" t="s">
+        <v>652</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>653</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>654</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>655</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>656</v>
+      </c>
+      <c r="N31" t="s">
+        <v>657</v>
+      </c>
+      <c r="O31" s="4" t="s">
+        <v>658</v>
+      </c>
+      <c r="P31" s="4" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="F32" t="s">
+        <v>660</v>
+      </c>
+      <c r="G32" t="s">
+        <v>661</v>
+      </c>
+      <c r="H32" t="s">
+        <v>662</v>
+      </c>
+      <c r="N32" t="s">
+        <v>663</v>
+      </c>
+      <c r="O32" t="s">
+        <v>664</v>
+      </c>
+      <c r="P32" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
+        <v>26</v>
+      </c>
+      <c r="F33" t="s">
+        <v>666</v>
+      </c>
+      <c r="G33" t="s">
+        <v>667</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>668</v>
+      </c>
+      <c r="N33" t="s">
+        <v>669</v>
+      </c>
+      <c r="O33" t="s">
+        <v>670</v>
+      </c>
+      <c r="P33" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
+        <v>27</v>
+      </c>
+      <c r="F34" t="s">
+        <v>672</v>
+      </c>
+      <c r="G34" t="s">
+        <v>673</v>
+      </c>
+      <c r="H34" t="s">
+        <v>674</v>
+      </c>
+      <c r="N34" t="s">
+        <v>675</v>
+      </c>
+      <c r="O34" t="s">
+        <v>676</v>
+      </c>
+      <c r="P34" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
+        <v>28</v>
+      </c>
+      <c r="F35" t="s">
+        <v>678</v>
+      </c>
+      <c r="G35" t="s">
+        <v>679</v>
+      </c>
+      <c r="H35" t="s">
+        <v>680</v>
+      </c>
+      <c r="N35" t="s">
+        <v>681</v>
+      </c>
+      <c r="O35" t="s">
+        <v>682</v>
+      </c>
+      <c r="P35" s="4" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
+        <v>29</v>
+      </c>
+      <c r="M36" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A37" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A38" t="s">
+        <v>31</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>685</v>
+      </c>
+      <c r="E38" t="s">
+        <v>686</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>687</v>
+      </c>
+      <c r="K38" s="4" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A39" t="s">
+        <v>32</v>
+      </c>
+      <c r="K39" t="s">
+        <v>689</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -7716,9 +10318,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FBC11CE-5322-4E11-A852-5B719841BCB0}">
-  <dimension ref="A1:Q18"/>
+  <dimension ref="A1:Q39"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P35" sqref="P35"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
@@ -8338,6 +10942,565 @@
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
     </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A23" s="5"/>
+      <c r="B23" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K23" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="L23" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="M23" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="N23" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="O23" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="P23" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q23" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A24" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9" t="s">
+        <v>690</v>
+      </c>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="10"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A25" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6" t="s">
+        <v>691</v>
+      </c>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="7"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A26" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" s="9"/>
+      <c r="C26" s="11" t="s">
+        <v>692</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>693</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>694</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>695</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>696</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>697</v>
+      </c>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9" t="s">
+        <v>698</v>
+      </c>
+      <c r="L26" s="9" t="s">
+        <v>699</v>
+      </c>
+      <c r="M26" s="9" t="s">
+        <v>700</v>
+      </c>
+      <c r="N26" s="9" t="s">
+        <v>701</v>
+      </c>
+      <c r="O26" s="9" t="s">
+        <v>702</v>
+      </c>
+      <c r="P26" s="9" t="s">
+        <v>703</v>
+      </c>
+      <c r="Q26" s="10"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A27" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="11" t="s">
+        <v>704</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>705</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>706</v>
+      </c>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6" t="s">
+        <v>707</v>
+      </c>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="6"/>
+      <c r="P27" s="6"/>
+      <c r="Q27" s="7"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A28" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9" t="s">
+        <v>708</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>709</v>
+      </c>
+      <c r="H28" s="11" t="s">
+        <v>710</v>
+      </c>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="9" t="s">
+        <v>711</v>
+      </c>
+      <c r="O28" s="9" t="s">
+        <v>712</v>
+      </c>
+      <c r="P28" s="11" t="s">
+        <v>713</v>
+      </c>
+      <c r="Q28" s="10"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A29" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="11" t="s">
+        <v>714</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>715</v>
+      </c>
+      <c r="H29" s="11" t="s">
+        <v>716</v>
+      </c>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6" t="s">
+        <v>717</v>
+      </c>
+      <c r="O29" s="11" t="s">
+        <v>718</v>
+      </c>
+      <c r="P29" s="11" t="s">
+        <v>719</v>
+      </c>
+      <c r="Q29" s="7"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A30" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>720</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>721</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>722</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>723</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>724</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>725</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>726</v>
+      </c>
+      <c r="I30" s="9" t="s">
+        <v>727</v>
+      </c>
+      <c r="J30" s="9" t="s">
+        <v>728</v>
+      </c>
+      <c r="K30" s="9" t="s">
+        <v>729</v>
+      </c>
+      <c r="L30" s="9" t="s">
+        <v>730</v>
+      </c>
+      <c r="M30" s="9" t="s">
+        <v>731</v>
+      </c>
+      <c r="N30" s="9" t="s">
+        <v>732</v>
+      </c>
+      <c r="O30" s="9" t="s">
+        <v>733</v>
+      </c>
+      <c r="P30" s="11" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q30" s="10" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A31" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>736</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>737</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>738</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>739</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>740</v>
+      </c>
+      <c r="G31" s="11" t="s">
+        <v>741</v>
+      </c>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="6" t="s">
+        <v>743</v>
+      </c>
+      <c r="O31" s="6" t="s">
+        <v>744</v>
+      </c>
+      <c r="P31" s="6" t="s">
+        <v>745</v>
+      </c>
+      <c r="Q31" s="7"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A32" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9" t="s">
+        <v>746</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>747</v>
+      </c>
+      <c r="H32" s="11" t="s">
+        <v>748</v>
+      </c>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="9" t="s">
+        <v>749</v>
+      </c>
+      <c r="O32" s="9" t="s">
+        <v>750</v>
+      </c>
+      <c r="P32" s="9" t="s">
+        <v>751</v>
+      </c>
+      <c r="Q32" s="10"/>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A33" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6" t="s">
+        <v>752</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>753</v>
+      </c>
+      <c r="H33" s="11" t="s">
+        <v>754</v>
+      </c>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="6"/>
+      <c r="N33" s="6" t="s">
+        <v>755</v>
+      </c>
+      <c r="O33" s="6" t="s">
+        <v>756</v>
+      </c>
+      <c r="P33" s="6" t="s">
+        <v>757</v>
+      </c>
+      <c r="Q33" s="7"/>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A34" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9" t="s">
+        <v>758</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>759</v>
+      </c>
+      <c r="H34" s="9" t="s">
+        <v>760</v>
+      </c>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="9" t="s">
+        <v>761</v>
+      </c>
+      <c r="O34" s="9" t="s">
+        <v>762</v>
+      </c>
+      <c r="P34" s="9" t="s">
+        <v>763</v>
+      </c>
+      <c r="Q34" s="10"/>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A35" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6" t="s">
+        <v>764</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>765</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>766</v>
+      </c>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="6"/>
+      <c r="N35" s="6" t="s">
+        <v>767</v>
+      </c>
+      <c r="O35" s="6" t="s">
+        <v>768</v>
+      </c>
+      <c r="P35" s="11" t="s">
+        <v>769</v>
+      </c>
+      <c r="Q35" s="7"/>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A36" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9" t="s">
+        <v>770</v>
+      </c>
+      <c r="N36" s="9"/>
+      <c r="O36" s="9"/>
+      <c r="P36" s="9"/>
+      <c r="Q36" s="10"/>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A37" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6"/>
+      <c r="M37" s="6"/>
+      <c r="N37" s="6"/>
+      <c r="O37" s="6"/>
+      <c r="P37" s="6"/>
+      <c r="Q37" s="7"/>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A38" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9" t="s">
+        <v>771</v>
+      </c>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9" t="s">
+        <v>772</v>
+      </c>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9" t="s">
+        <v>773</v>
+      </c>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9" t="s">
+        <v>774</v>
+      </c>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="9"/>
+      <c r="O38" s="9"/>
+      <c r="P38" s="9"/>
+      <c r="Q38" s="10"/>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A39" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6" t="s">
+        <v>775</v>
+      </c>
+      <c r="L39" s="6"/>
+      <c r="M39" s="6"/>
+      <c r="N39" s="6"/>
+      <c r="O39" s="6"/>
+      <c r="P39" s="6"/>
+      <c r="Q39" s="7"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -8348,9 +11511,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A51FB7A-B5BA-485F-9AAA-2ED9C33CF870}">
-  <dimension ref="A1:Q18"/>
+  <dimension ref="A1:Q39"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:Q39"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
@@ -9318,6 +12483,905 @@
         <v>975</v>
       </c>
     </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A23" s="5"/>
+      <c r="B23" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K23" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="L23" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="M23" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="N23" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="O23" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="P23" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q23" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A24" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>776</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>777</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>778</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>779</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>780</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>781</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>782</v>
+      </c>
+      <c r="I24" s="9" t="s">
+        <v>783</v>
+      </c>
+      <c r="J24" s="9" t="s">
+        <v>784</v>
+      </c>
+      <c r="K24" s="9" t="s">
+        <v>785</v>
+      </c>
+      <c r="L24" s="9" t="s">
+        <v>786</v>
+      </c>
+      <c r="M24" s="9" t="s">
+        <v>787</v>
+      </c>
+      <c r="N24" s="9" t="s">
+        <v>788</v>
+      </c>
+      <c r="O24" s="9" t="s">
+        <v>789</v>
+      </c>
+      <c r="P24" s="9" t="s">
+        <v>790</v>
+      </c>
+      <c r="Q24" s="10" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A25" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>792</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>793</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>794</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>795</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>796</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>797</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>798</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>799</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>800</v>
+      </c>
+      <c r="K25" s="6" t="s">
+        <v>801</v>
+      </c>
+      <c r="L25" s="6" t="s">
+        <v>802</v>
+      </c>
+      <c r="M25" s="6" t="s">
+        <v>803</v>
+      </c>
+      <c r="N25" s="6" t="s">
+        <v>804</v>
+      </c>
+      <c r="O25" s="6" t="s">
+        <v>805</v>
+      </c>
+      <c r="P25" s="6" t="s">
+        <v>806</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A26" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>808</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>809</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>810</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>811</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>812</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>813</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>814</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>815</v>
+      </c>
+      <c r="J26" s="9" t="s">
+        <v>816</v>
+      </c>
+      <c r="K26" s="9" t="s">
+        <v>817</v>
+      </c>
+      <c r="L26" s="9" t="s">
+        <v>818</v>
+      </c>
+      <c r="M26" s="9" t="s">
+        <v>819</v>
+      </c>
+      <c r="N26" s="9" t="s">
+        <v>820</v>
+      </c>
+      <c r="O26" s="9" t="s">
+        <v>821</v>
+      </c>
+      <c r="P26" s="9" t="s">
+        <v>822</v>
+      </c>
+      <c r="Q26" s="10" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A27" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>824</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>825</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>826</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>827</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>828</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>829</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>830</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>831</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>832</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>833</v>
+      </c>
+      <c r="L27" s="6" t="s">
+        <v>834</v>
+      </c>
+      <c r="M27" s="6" t="s">
+        <v>835</v>
+      </c>
+      <c r="N27" s="6" t="s">
+        <v>836</v>
+      </c>
+      <c r="O27" s="6" t="s">
+        <v>837</v>
+      </c>
+      <c r="P27" s="6" t="s">
+        <v>838</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A28" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>840</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>840</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>840</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>840</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>840</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>840</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>840</v>
+      </c>
+      <c r="I28" s="9" t="s">
+        <v>840</v>
+      </c>
+      <c r="J28" s="9" t="s">
+        <v>841</v>
+      </c>
+      <c r="K28" s="9" t="s">
+        <v>841</v>
+      </c>
+      <c r="L28" s="9" t="s">
+        <v>841</v>
+      </c>
+      <c r="M28" s="9" t="s">
+        <v>841</v>
+      </c>
+      <c r="N28" s="9" t="s">
+        <v>841</v>
+      </c>
+      <c r="O28" s="9" t="s">
+        <v>841</v>
+      </c>
+      <c r="P28" s="9" t="s">
+        <v>841</v>
+      </c>
+      <c r="Q28" s="10" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A29" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>842</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>842</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>842</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>842</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>842</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>842</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>842</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>842</v>
+      </c>
+      <c r="J29" s="6" t="s">
+        <v>843</v>
+      </c>
+      <c r="K29" s="6" t="s">
+        <v>843</v>
+      </c>
+      <c r="L29" s="6" t="s">
+        <v>843</v>
+      </c>
+      <c r="M29" s="6" t="s">
+        <v>843</v>
+      </c>
+      <c r="N29" s="6" t="s">
+        <v>843</v>
+      </c>
+      <c r="O29" s="6" t="s">
+        <v>843</v>
+      </c>
+      <c r="P29" s="6" t="s">
+        <v>843</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A30" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>844</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>844</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>844</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>844</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>844</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>844</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>844</v>
+      </c>
+      <c r="I30" s="9" t="s">
+        <v>844</v>
+      </c>
+      <c r="J30" s="9" t="s">
+        <v>845</v>
+      </c>
+      <c r="K30" s="9" t="s">
+        <v>845</v>
+      </c>
+      <c r="L30" s="9" t="s">
+        <v>845</v>
+      </c>
+      <c r="M30" s="9" t="s">
+        <v>845</v>
+      </c>
+      <c r="N30" s="9" t="s">
+        <v>845</v>
+      </c>
+      <c r="O30" s="9" t="s">
+        <v>845</v>
+      </c>
+      <c r="P30" s="9" t="s">
+        <v>845</v>
+      </c>
+      <c r="Q30" s="10" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A31" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>846</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>846</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>846</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>846</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>846</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>846</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>846</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>846</v>
+      </c>
+      <c r="J31" s="6" t="s">
+        <v>847</v>
+      </c>
+      <c r="K31" s="6" t="s">
+        <v>847</v>
+      </c>
+      <c r="L31" s="6" t="s">
+        <v>847</v>
+      </c>
+      <c r="M31" s="6" t="s">
+        <v>847</v>
+      </c>
+      <c r="N31" s="6" t="s">
+        <v>847</v>
+      </c>
+      <c r="O31" s="6" t="s">
+        <v>847</v>
+      </c>
+      <c r="P31" s="6" t="s">
+        <v>847</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A32" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>848</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>849</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>850</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>851</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>852</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>853</v>
+      </c>
+      <c r="H32" s="9" t="s">
+        <v>854</v>
+      </c>
+      <c r="I32" s="9" t="s">
+        <v>855</v>
+      </c>
+      <c r="J32" s="9" t="s">
+        <v>856</v>
+      </c>
+      <c r="K32" s="9" t="s">
+        <v>857</v>
+      </c>
+      <c r="L32" s="9" t="s">
+        <v>858</v>
+      </c>
+      <c r="M32" s="9" t="s">
+        <v>859</v>
+      </c>
+      <c r="N32" s="9" t="s">
+        <v>860</v>
+      </c>
+      <c r="O32" s="9" t="s">
+        <v>861</v>
+      </c>
+      <c r="P32" s="9" t="s">
+        <v>862</v>
+      </c>
+      <c r="Q32" s="10" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A33" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>864</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>865</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>866</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>867</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>868</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>869</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>870</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>871</v>
+      </c>
+      <c r="J33" s="6" t="s">
+        <v>872</v>
+      </c>
+      <c r="K33" s="6" t="s">
+        <v>873</v>
+      </c>
+      <c r="L33" s="6" t="s">
+        <v>874</v>
+      </c>
+      <c r="M33" s="6" t="s">
+        <v>875</v>
+      </c>
+      <c r="N33" s="6" t="s">
+        <v>876</v>
+      </c>
+      <c r="O33" s="6" t="s">
+        <v>877</v>
+      </c>
+      <c r="P33" s="6" t="s">
+        <v>878</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A34" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>880</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>881</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>882</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>883</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>884</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>885</v>
+      </c>
+      <c r="H34" s="9" t="s">
+        <v>886</v>
+      </c>
+      <c r="I34" s="9" t="s">
+        <v>887</v>
+      </c>
+      <c r="J34" s="9" t="s">
+        <v>888</v>
+      </c>
+      <c r="K34" s="9" t="s">
+        <v>889</v>
+      </c>
+      <c r="L34" s="9" t="s">
+        <v>890</v>
+      </c>
+      <c r="M34" s="9" t="s">
+        <v>891</v>
+      </c>
+      <c r="N34" s="9" t="s">
+        <v>892</v>
+      </c>
+      <c r="O34" s="9" t="s">
+        <v>893</v>
+      </c>
+      <c r="P34" s="9" t="s">
+        <v>894</v>
+      </c>
+      <c r="Q34" s="10" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A35" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>896</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>897</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>898</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>899</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>900</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>901</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>902</v>
+      </c>
+      <c r="I35" s="6" t="s">
+        <v>903</v>
+      </c>
+      <c r="J35" s="6" t="s">
+        <v>904</v>
+      </c>
+      <c r="K35" s="6" t="s">
+        <v>905</v>
+      </c>
+      <c r="L35" s="6" t="s">
+        <v>906</v>
+      </c>
+      <c r="M35" s="6" t="s">
+        <v>907</v>
+      </c>
+      <c r="N35" s="6" t="s">
+        <v>908</v>
+      </c>
+      <c r="O35" s="6" t="s">
+        <v>909</v>
+      </c>
+      <c r="P35" s="6" t="s">
+        <v>910</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A36" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>912</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>913</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>914</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>915</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>916</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>917</v>
+      </c>
+      <c r="H36" s="9" t="s">
+        <v>918</v>
+      </c>
+      <c r="I36" s="9" t="s">
+        <v>919</v>
+      </c>
+      <c r="J36" s="9" t="s">
+        <v>920</v>
+      </c>
+      <c r="K36" s="9" t="s">
+        <v>921</v>
+      </c>
+      <c r="L36" s="9" t="s">
+        <v>922</v>
+      </c>
+      <c r="M36" s="9" t="s">
+        <v>923</v>
+      </c>
+      <c r="N36" s="9" t="s">
+        <v>924</v>
+      </c>
+      <c r="O36" s="9" t="s">
+        <v>925</v>
+      </c>
+      <c r="P36" s="9" t="s">
+        <v>926</v>
+      </c>
+      <c r="Q36" s="10" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A37" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>928</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>929</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>930</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>931</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>932</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>933</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>934</v>
+      </c>
+      <c r="I37" s="6" t="s">
+        <v>935</v>
+      </c>
+      <c r="J37" s="6" t="s">
+        <v>936</v>
+      </c>
+      <c r="K37" s="6" t="s">
+        <v>937</v>
+      </c>
+      <c r="L37" s="6" t="s">
+        <v>938</v>
+      </c>
+      <c r="M37" s="6" t="s">
+        <v>939</v>
+      </c>
+      <c r="N37" s="6" t="s">
+        <v>940</v>
+      </c>
+      <c r="O37" s="6" t="s">
+        <v>941</v>
+      </c>
+      <c r="P37" s="6" t="s">
+        <v>942</v>
+      </c>
+      <c r="Q37" s="7" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A38" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>944</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>945</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>946</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>947</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>948</v>
+      </c>
+      <c r="G38" s="9" t="s">
+        <v>949</v>
+      </c>
+      <c r="H38" s="9" t="s">
+        <v>950</v>
+      </c>
+      <c r="I38" s="9" t="s">
+        <v>951</v>
+      </c>
+      <c r="J38" s="9" t="s">
+        <v>952</v>
+      </c>
+      <c r="K38" s="9" t="s">
+        <v>953</v>
+      </c>
+      <c r="L38" s="9" t="s">
+        <v>954</v>
+      </c>
+      <c r="M38" s="9" t="s">
+        <v>955</v>
+      </c>
+      <c r="N38" s="9" t="s">
+        <v>956</v>
+      </c>
+      <c r="O38" s="9" t="s">
+        <v>957</v>
+      </c>
+      <c r="P38" s="9" t="s">
+        <v>958</v>
+      </c>
+      <c r="Q38" s="10" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A39" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>960</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>961</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>962</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>963</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>964</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>965</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>966</v>
+      </c>
+      <c r="I39" s="6" t="s">
+        <v>967</v>
+      </c>
+      <c r="J39" s="6" t="s">
+        <v>968</v>
+      </c>
+      <c r="K39" s="6" t="s">
+        <v>969</v>
+      </c>
+      <c r="L39" s="6" t="s">
+        <v>970</v>
+      </c>
+      <c r="M39" s="6" t="s">
+        <v>971</v>
+      </c>
+      <c r="N39" s="6" t="s">
+        <v>972</v>
+      </c>
+      <c r="O39" s="6" t="s">
+        <v>973</v>
+      </c>
+      <c r="P39" s="6" t="s">
+        <v>974</v>
+      </c>
+      <c r="Q39" s="7" t="s">
+        <v>975</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -9328,9 +13392,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC54877C-0099-46F6-90F7-92BA5AA488CC}">
-  <dimension ref="A1:Q18"/>
+  <dimension ref="A1:Q39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:Q39"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
@@ -10298,6 +14364,905 @@
         <v>1175</v>
       </c>
     </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A23" s="5"/>
+      <c r="B23" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K23" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="L23" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="M23" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="N23" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="O23" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="P23" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q23" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A24" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>976</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>977</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>978</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>979</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>980</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>981</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>982</v>
+      </c>
+      <c r="I24" s="9" t="s">
+        <v>983</v>
+      </c>
+      <c r="J24" s="9" t="s">
+        <v>984</v>
+      </c>
+      <c r="K24" s="9" t="s">
+        <v>985</v>
+      </c>
+      <c r="L24" s="9" t="s">
+        <v>986</v>
+      </c>
+      <c r="M24" s="9" t="s">
+        <v>987</v>
+      </c>
+      <c r="N24" s="9" t="s">
+        <v>988</v>
+      </c>
+      <c r="O24" s="9" t="s">
+        <v>989</v>
+      </c>
+      <c r="P24" s="9" t="s">
+        <v>990</v>
+      </c>
+      <c r="Q24" s="10" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A25" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>992</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>993</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>994</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>995</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>996</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>997</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>998</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>999</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>1000</v>
+      </c>
+      <c r="K25" s="6" t="s">
+        <v>1001</v>
+      </c>
+      <c r="L25" s="6" t="s">
+        <v>1002</v>
+      </c>
+      <c r="M25" s="6" t="s">
+        <v>1003</v>
+      </c>
+      <c r="N25" s="6" t="s">
+        <v>1004</v>
+      </c>
+      <c r="O25" s="6" t="s">
+        <v>1005</v>
+      </c>
+      <c r="P25" s="6" t="s">
+        <v>1006</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A26" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>1011</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>1012</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>1013</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>1014</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>1015</v>
+      </c>
+      <c r="J26" s="9" t="s">
+        <v>1016</v>
+      </c>
+      <c r="K26" s="9" t="s">
+        <v>1017</v>
+      </c>
+      <c r="L26" s="9" t="s">
+        <v>1018</v>
+      </c>
+      <c r="M26" s="9" t="s">
+        <v>1019</v>
+      </c>
+      <c r="N26" s="9" t="s">
+        <v>1020</v>
+      </c>
+      <c r="O26" s="9" t="s">
+        <v>1021</v>
+      </c>
+      <c r="P26" s="9" t="s">
+        <v>1022</v>
+      </c>
+      <c r="Q26" s="10" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A27" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>1026</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>1027</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>1028</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>1030</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>1031</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>1032</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>1033</v>
+      </c>
+      <c r="L27" s="6" t="s">
+        <v>1034</v>
+      </c>
+      <c r="M27" s="6" t="s">
+        <v>1035</v>
+      </c>
+      <c r="N27" s="6" t="s">
+        <v>1036</v>
+      </c>
+      <c r="O27" s="6" t="s">
+        <v>1037</v>
+      </c>
+      <c r="P27" s="6" t="s">
+        <v>1038</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A28" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>1040</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>1040</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>1040</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>1040</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>1040</v>
+      </c>
+      <c r="I28" s="9" t="s">
+        <v>1040</v>
+      </c>
+      <c r="J28" s="9" t="s">
+        <v>1041</v>
+      </c>
+      <c r="K28" s="9" t="s">
+        <v>1041</v>
+      </c>
+      <c r="L28" s="9" t="s">
+        <v>1041</v>
+      </c>
+      <c r="M28" s="9" t="s">
+        <v>1041</v>
+      </c>
+      <c r="N28" s="9" t="s">
+        <v>1041</v>
+      </c>
+      <c r="O28" s="9" t="s">
+        <v>1041</v>
+      </c>
+      <c r="P28" s="9" t="s">
+        <v>1041</v>
+      </c>
+      <c r="Q28" s="10" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A29" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>1042</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>1042</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>1042</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>1042</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>1042</v>
+      </c>
+      <c r="J29" s="6" t="s">
+        <v>1043</v>
+      </c>
+      <c r="K29" s="6" t="s">
+        <v>1043</v>
+      </c>
+      <c r="L29" s="6" t="s">
+        <v>1043</v>
+      </c>
+      <c r="M29" s="6" t="s">
+        <v>1043</v>
+      </c>
+      <c r="N29" s="6" t="s">
+        <v>1043</v>
+      </c>
+      <c r="O29" s="6" t="s">
+        <v>1043</v>
+      </c>
+      <c r="P29" s="6" t="s">
+        <v>1043</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A30" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>1044</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>1044</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>1044</v>
+      </c>
+      <c r="I30" s="9" t="s">
+        <v>1044</v>
+      </c>
+      <c r="J30" s="9" t="s">
+        <v>1045</v>
+      </c>
+      <c r="K30" s="9" t="s">
+        <v>1045</v>
+      </c>
+      <c r="L30" s="9" t="s">
+        <v>1045</v>
+      </c>
+      <c r="M30" s="9" t="s">
+        <v>1045</v>
+      </c>
+      <c r="N30" s="9" t="s">
+        <v>1045</v>
+      </c>
+      <c r="O30" s="9" t="s">
+        <v>1045</v>
+      </c>
+      <c r="P30" s="9" t="s">
+        <v>1045</v>
+      </c>
+      <c r="Q30" s="10" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A31" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>1046</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>1046</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>1046</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>1046</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>1046</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>1046</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>1046</v>
+      </c>
+      <c r="J31" s="6" t="s">
+        <v>1047</v>
+      </c>
+      <c r="K31" s="6" t="s">
+        <v>1047</v>
+      </c>
+      <c r="L31" s="6" t="s">
+        <v>1047</v>
+      </c>
+      <c r="M31" s="6" t="s">
+        <v>1047</v>
+      </c>
+      <c r="N31" s="6" t="s">
+        <v>1047</v>
+      </c>
+      <c r="O31" s="6" t="s">
+        <v>1047</v>
+      </c>
+      <c r="P31" s="6" t="s">
+        <v>1047</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A32" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>1049</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>1050</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>1051</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>1052</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>1053</v>
+      </c>
+      <c r="H32" s="9" t="s">
+        <v>1054</v>
+      </c>
+      <c r="I32" s="9" t="s">
+        <v>1055</v>
+      </c>
+      <c r="J32" s="9" t="s">
+        <v>1056</v>
+      </c>
+      <c r="K32" s="9" t="s">
+        <v>1057</v>
+      </c>
+      <c r="L32" s="9" t="s">
+        <v>1058</v>
+      </c>
+      <c r="M32" s="9" t="s">
+        <v>1059</v>
+      </c>
+      <c r="N32" s="9" t="s">
+        <v>1060</v>
+      </c>
+      <c r="O32" s="9" t="s">
+        <v>1061</v>
+      </c>
+      <c r="P32" s="9" t="s">
+        <v>1062</v>
+      </c>
+      <c r="Q32" s="10" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A33" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>1067</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>1068</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>1069</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>1070</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>1071</v>
+      </c>
+      <c r="J33" s="6" t="s">
+        <v>1072</v>
+      </c>
+      <c r="K33" s="6" t="s">
+        <v>1073</v>
+      </c>
+      <c r="L33" s="6" t="s">
+        <v>1074</v>
+      </c>
+      <c r="M33" s="6" t="s">
+        <v>1075</v>
+      </c>
+      <c r="N33" s="6" t="s">
+        <v>1076</v>
+      </c>
+      <c r="O33" s="6" t="s">
+        <v>1077</v>
+      </c>
+      <c r="P33" s="6" t="s">
+        <v>1078</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A34" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>1082</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>1083</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>1084</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>1085</v>
+      </c>
+      <c r="H34" s="9" t="s">
+        <v>1086</v>
+      </c>
+      <c r="I34" s="9" t="s">
+        <v>1087</v>
+      </c>
+      <c r="J34" s="9" t="s">
+        <v>1088</v>
+      </c>
+      <c r="K34" s="9" t="s">
+        <v>1089</v>
+      </c>
+      <c r="L34" s="9" t="s">
+        <v>1090</v>
+      </c>
+      <c r="M34" s="9" t="s">
+        <v>1091</v>
+      </c>
+      <c r="N34" s="9" t="s">
+        <v>1092</v>
+      </c>
+      <c r="O34" s="9" t="s">
+        <v>1093</v>
+      </c>
+      <c r="P34" s="9" t="s">
+        <v>1094</v>
+      </c>
+      <c r="Q34" s="10" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A35" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>1097</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>1098</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>1099</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>1100</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>1101</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>1102</v>
+      </c>
+      <c r="I35" s="6" t="s">
+        <v>1103</v>
+      </c>
+      <c r="J35" s="6" t="s">
+        <v>1104</v>
+      </c>
+      <c r="K35" s="6" t="s">
+        <v>1105</v>
+      </c>
+      <c r="L35" s="6" t="s">
+        <v>1106</v>
+      </c>
+      <c r="M35" s="6" t="s">
+        <v>1107</v>
+      </c>
+      <c r="N35" s="6" t="s">
+        <v>1108</v>
+      </c>
+      <c r="O35" s="6" t="s">
+        <v>1109</v>
+      </c>
+      <c r="P35" s="6" t="s">
+        <v>1110</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A36" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>1113</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>1114</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>1115</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>1116</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>1117</v>
+      </c>
+      <c r="H36" s="9" t="s">
+        <v>1118</v>
+      </c>
+      <c r="I36" s="9" t="s">
+        <v>1119</v>
+      </c>
+      <c r="J36" s="9" t="s">
+        <v>1120</v>
+      </c>
+      <c r="K36" s="9" t="s">
+        <v>1121</v>
+      </c>
+      <c r="L36" s="9" t="s">
+        <v>1122</v>
+      </c>
+      <c r="M36" s="9" t="s">
+        <v>1123</v>
+      </c>
+      <c r="N36" s="9" t="s">
+        <v>1124</v>
+      </c>
+      <c r="O36" s="9" t="s">
+        <v>1125</v>
+      </c>
+      <c r="P36" s="9" t="s">
+        <v>1126</v>
+      </c>
+      <c r="Q36" s="10" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A37" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>1129</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>1130</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>1131</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>1132</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>1133</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>1134</v>
+      </c>
+      <c r="I37" s="6" t="s">
+        <v>1135</v>
+      </c>
+      <c r="J37" s="6" t="s">
+        <v>1136</v>
+      </c>
+      <c r="K37" s="6" t="s">
+        <v>1137</v>
+      </c>
+      <c r="L37" s="6" t="s">
+        <v>1138</v>
+      </c>
+      <c r="M37" s="6" t="s">
+        <v>1139</v>
+      </c>
+      <c r="N37" s="6" t="s">
+        <v>1140</v>
+      </c>
+      <c r="O37" s="6" t="s">
+        <v>1141</v>
+      </c>
+      <c r="P37" s="6" t="s">
+        <v>1142</v>
+      </c>
+      <c r="Q37" s="7" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A38" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>1145</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>1146</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>1147</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>1148</v>
+      </c>
+      <c r="G38" s="9" t="s">
+        <v>1149</v>
+      </c>
+      <c r="H38" s="9" t="s">
+        <v>1150</v>
+      </c>
+      <c r="I38" s="9" t="s">
+        <v>1151</v>
+      </c>
+      <c r="J38" s="9" t="s">
+        <v>1152</v>
+      </c>
+      <c r="K38" s="9" t="s">
+        <v>1153</v>
+      </c>
+      <c r="L38" s="9" t="s">
+        <v>1154</v>
+      </c>
+      <c r="M38" s="9" t="s">
+        <v>1155</v>
+      </c>
+      <c r="N38" s="9" t="s">
+        <v>1156</v>
+      </c>
+      <c r="O38" s="9" t="s">
+        <v>1157</v>
+      </c>
+      <c r="P38" s="9" t="s">
+        <v>1158</v>
+      </c>
+      <c r="Q38" s="10" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A39" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>1162</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>1163</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>1164</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>1165</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>1166</v>
+      </c>
+      <c r="I39" s="6" t="s">
+        <v>1167</v>
+      </c>
+      <c r="J39" s="6" t="s">
+        <v>1168</v>
+      </c>
+      <c r="K39" s="6" t="s">
+        <v>1169</v>
+      </c>
+      <c r="L39" s="6" t="s">
+        <v>1170</v>
+      </c>
+      <c r="M39" s="6" t="s">
+        <v>1171</v>
+      </c>
+      <c r="N39" s="6" t="s">
+        <v>1172</v>
+      </c>
+      <c r="O39" s="6" t="s">
+        <v>1173</v>
+      </c>
+      <c r="P39" s="6" t="s">
+        <v>1174</v>
+      </c>
+      <c r="Q39" s="7" t="s">
+        <v>1175</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
